--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-7-外部設計書(画面・帳票仕様)_ショッピング_会員退会.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-7-外部設計書(画面・帳票仕様)_ショッピング_会員退会.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796056C0-53FC-4B40-B170-3620C9A59759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="768" yWindow="240" windowWidth="14196" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="W7" authorId="0" shapeId="0">
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W26" authorId="0" shapeId="0">
+    <comment ref="W26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W38" authorId="0" shapeId="0">
+    <comment ref="W38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -324,22 +325,6 @@
   </si>
   <si>
     <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>assword</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>n</t>
     </r>
     <r>
@@ -543,11 +528,15 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>password1</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
@@ -998,19 +987,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1030,11 +1025,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1046,15 +1041,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,11 +1055,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1081,38 +1076,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1129,13 +1106,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,7 +1166,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1245,7 +1240,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1313,7 +1314,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1445,6 +1452,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1480,6 +1504,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1655,100 +1696,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:IT115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="BP87" sqref="BP87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="34" width="2.625" style="4" customWidth="1"/>
-    <col min="35" max="35" width="2.75" style="4" customWidth="1"/>
-    <col min="36" max="1020" width="2.625" style="4" customWidth="1"/>
+    <col min="1" max="34" width="2.6328125" style="4" customWidth="1"/>
+    <col min="35" max="35" width="2.7265625" style="4" customWidth="1"/>
+    <col min="36" max="1020" width="2.6328125" style="4" customWidth="1"/>
     <col min="1021" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="34" t="s">
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="33" t="s">
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="34" t="s">
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="35" t="s">
-        <v>38</v>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="38" t="s">
+        <v>37</v>
       </c>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
@@ -1947,68 +1988,68 @@
       <c r="IS1" s="8"/>
       <c r="IT1" s="8"/>
     </row>
-    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34" t="s">
+    <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="34" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
@@ -2207,7 +2248,7 @@
       <c r="IS2" s="8"/>
       <c r="IT2" s="8"/>
     </row>
-    <row r="3" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2463,72 +2504,72 @@
       <c r="IS3" s="8"/>
       <c r="IT3" s="8"/>
     </row>
-    <row r="4" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="37" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="45"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="45"/>
-      <c r="BC4" s="45"/>
-      <c r="BD4" s="45"/>
-      <c r="BE4" s="45"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
@@ -2727,64 +2768,64 @@
       <c r="IS4" s="8"/>
       <c r="IT4" s="8"/>
     </row>
-    <row r="5" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
+    <row r="5" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
@@ -2983,7 +3024,7 @@
       <c r="IS5" s="8"/>
       <c r="IT5" s="8"/>
     </row>
-    <row r="6" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3239,7 +3280,7 @@
       <c r="IS6" s="8"/>
       <c r="IT6" s="8"/>
     </row>
-    <row r="7" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3495,7 +3536,7 @@
       <c r="IS7" s="8"/>
       <c r="IT7" s="8"/>
     </row>
-    <row r="8" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3751,7 +3792,7 @@
       <c r="IS8" s="8"/>
       <c r="IT8" s="8"/>
     </row>
-    <row r="9" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4007,7 +4048,7 @@
       <c r="IS9" s="8"/>
       <c r="IT9" s="8"/>
     </row>
-    <row r="10" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4263,7 +4304,7 @@
       <c r="IS10" s="8"/>
       <c r="IT10" s="8"/>
     </row>
-    <row r="11" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4519,7 +4560,7 @@
       <c r="IS11" s="8"/>
       <c r="IT11" s="8"/>
     </row>
-    <row r="12" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4775,7 +4816,7 @@
       <c r="IS12" s="8"/>
       <c r="IT12" s="8"/>
     </row>
-    <row r="13" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -5031,7 +5072,7 @@
       <c r="IS13" s="8"/>
       <c r="IT13" s="8"/>
     </row>
-    <row r="14" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5287,7 +5328,7 @@
       <c r="IS14" s="8"/>
       <c r="IT14" s="8"/>
     </row>
-    <row r="15" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5543,7 +5584,7 @@
       <c r="IS15" s="8"/>
       <c r="IT15" s="8"/>
     </row>
-    <row r="16" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5799,7 +5840,7 @@
       <c r="IS16" s="8"/>
       <c r="IT16" s="8"/>
     </row>
-    <row r="17" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -6055,7 +6096,7 @@
       <c r="IS17" s="8"/>
       <c r="IT17" s="8"/>
     </row>
-    <row r="18" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6311,7 +6352,7 @@
       <c r="IS18" s="8"/>
       <c r="IT18" s="8"/>
     </row>
-    <row r="19" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6567,7 +6608,7 @@
       <c r="IS19" s="8"/>
       <c r="IT19" s="8"/>
     </row>
-    <row r="20" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6823,7 +6864,7 @@
       <c r="IS20" s="8"/>
       <c r="IT20" s="8"/>
     </row>
-    <row r="21" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -7079,7 +7120,7 @@
       <c r="IS21" s="8"/>
       <c r="IT21" s="8"/>
     </row>
-    <row r="22" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -7335,7 +7376,7 @@
       <c r="IS22" s="8"/>
       <c r="IT22" s="8"/>
     </row>
-    <row r="23" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7591,7 +7632,7 @@
       <c r="IS23" s="8"/>
       <c r="IT23" s="8"/>
     </row>
-    <row r="24" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -7847,7 +7888,7 @@
       <c r="IS24" s="8"/>
       <c r="IT24" s="8"/>
     </row>
-    <row r="25" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -8103,7 +8144,7 @@
       <c r="IS25" s="8"/>
       <c r="IT25" s="8"/>
     </row>
-    <row r="26" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -8359,7 +8400,7 @@
       <c r="IS26" s="8"/>
       <c r="IT26" s="8"/>
     </row>
-    <row r="27" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -8615,7 +8656,7 @@
       <c r="IS27" s="8"/>
       <c r="IT27" s="8"/>
     </row>
-    <row r="28" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -8871,7 +8912,7 @@
       <c r="IS28" s="8"/>
       <c r="IT28" s="8"/>
     </row>
-    <row r="29" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -9127,7 +9168,7 @@
       <c r="IS29" s="8"/>
       <c r="IT29" s="8"/>
     </row>
-    <row r="30" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -9383,7 +9424,7 @@
       <c r="IS30" s="8"/>
       <c r="IT30" s="8"/>
     </row>
-    <row r="31" spans="1:254" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -9639,7 +9680,7 @@
       <c r="IS31" s="8"/>
       <c r="IT31" s="8"/>
     </row>
-    <row r="32" spans="1:254" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:254" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -9700,7 +9741,7 @@
       <c r="BF32" s="7"/>
       <c r="BG32" s="7"/>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -9761,7 +9802,7 @@
       <c r="BF33" s="7"/>
       <c r="BG33" s="7"/>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -9822,7 +9863,7 @@
       <c r="BF34" s="7"/>
       <c r="BG34" s="7"/>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -9883,7 +9924,7 @@
       <c r="BF35" s="7"/>
       <c r="BG35" s="7"/>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -9944,7 +9985,7 @@
       <c r="BF36" s="7"/>
       <c r="BG36" s="7"/>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -10005,7 +10046,7 @@
       <c r="BF37" s="7"/>
       <c r="BG37" s="7"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -10066,7 +10107,7 @@
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -10127,7 +10168,7 @@
       <c r="BF39" s="7"/>
       <c r="BG39" s="7"/>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -10187,7 +10228,7 @@
       <c r="BE40" s="21"/>
       <c r="BF40" s="7"/>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -10246,7 +10287,7 @@
       <c r="BD41" s="20"/>
       <c r="BE41" s="21"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -10305,7 +10346,7 @@
       <c r="BD42" s="20"/>
       <c r="BE42" s="21"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -10364,7 +10405,7 @@
       <c r="BD43" s="20"/>
       <c r="BE43" s="21"/>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -10423,7 +10464,7 @@
       <c r="BD44" s="20"/>
       <c r="BE44" s="21"/>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -10482,147 +10523,147 @@
       <c r="BD45" s="23"/>
       <c r="BE45" s="24"/>
     </row>
-    <row r="46" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="34" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="33" t="s">
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="33"/>
-      <c r="AI46" s="33"/>
-      <c r="AJ46" s="33"/>
-      <c r="AK46" s="33"/>
-      <c r="AL46" s="33"/>
-      <c r="AM46" s="34" t="s">
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="34"/>
+      <c r="AH46" s="34"/>
+      <c r="AI46" s="34"/>
+      <c r="AJ46" s="34"/>
+      <c r="AK46" s="34"/>
+      <c r="AL46" s="34"/>
+      <c r="AM46" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AN46" s="34"/>
-      <c r="AO46" s="34"/>
-      <c r="AP46" s="33" t="s">
+      <c r="AN46" s="33"/>
+      <c r="AO46" s="33"/>
+      <c r="AP46" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AQ46" s="33"/>
-      <c r="AR46" s="33"/>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="33"/>
-      <c r="AU46" s="33"/>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="34" t="s">
+      <c r="AQ46" s="34"/>
+      <c r="AR46" s="34"/>
+      <c r="AS46" s="34"/>
+      <c r="AT46" s="34"/>
+      <c r="AU46" s="34"/>
+      <c r="AV46" s="34"/>
+      <c r="AW46" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AX46" s="34"/>
-      <c r="AY46" s="34"/>
-      <c r="AZ46" s="35" t="s">
-        <v>38</v>
+      <c r="AX46" s="33"/>
+      <c r="AY46" s="33"/>
+      <c r="AZ46" s="38" t="s">
+        <v>37</v>
       </c>
-      <c r="BA46" s="35"/>
-      <c r="BB46" s="35"/>
-      <c r="BC46" s="35"/>
-      <c r="BD46" s="35"/>
-      <c r="BE46" s="35"/>
+      <c r="BA46" s="38"/>
+      <c r="BB46" s="38"/>
+      <c r="BC46" s="38"/>
+      <c r="BD46" s="38"/>
+      <c r="BE46" s="38"/>
     </row>
-    <row r="47" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="33"/>
-      <c r="AH47" s="33"/>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="33"/>
-      <c r="AK47" s="33"/>
-      <c r="AL47" s="33"/>
-      <c r="AM47" s="34" t="s">
+    <row r="47" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="34"/>
+      <c r="AI47" s="34"/>
+      <c r="AJ47" s="34"/>
+      <c r="AK47" s="34"/>
+      <c r="AL47" s="34"/>
+      <c r="AM47" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AN47" s="34"/>
-      <c r="AO47" s="34"/>
-      <c r="AP47" s="33"/>
-      <c r="AQ47" s="33"/>
-      <c r="AR47" s="33"/>
-      <c r="AS47" s="33"/>
-      <c r="AT47" s="33"/>
-      <c r="AU47" s="33"/>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="34" t="s">
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="34"/>
+      <c r="AQ47" s="34"/>
+      <c r="AR47" s="34"/>
+      <c r="AS47" s="34"/>
+      <c r="AT47" s="34"/>
+      <c r="AU47" s="34"/>
+      <c r="AV47" s="34"/>
+      <c r="AW47" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AX47" s="34"/>
-      <c r="AY47" s="34"/>
-      <c r="AZ47" s="35"/>
-      <c r="BA47" s="35"/>
-      <c r="BB47" s="35"/>
-      <c r="BC47" s="35"/>
-      <c r="BD47" s="35"/>
-      <c r="BE47" s="35"/>
+      <c r="AX47" s="33"/>
+      <c r="AY47" s="33"/>
+      <c r="AZ47" s="38"/>
+      <c r="BA47" s="38"/>
+      <c r="BB47" s="38"/>
+      <c r="BC47" s="38"/>
+      <c r="BD47" s="38"/>
+      <c r="BE47" s="38"/>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -10681,133 +10722,133 @@
       <c r="BD48" s="5"/>
       <c r="BE48" s="5"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A49" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD49" s="37"/>
-      <c r="AE49" s="37"/>
-      <c r="AF49" s="37"/>
-      <c r="AG49" s="37"/>
-      <c r="AH49" s="37"/>
-      <c r="AI49" s="37"/>
-      <c r="AJ49" s="37"/>
-      <c r="AK49" s="37"/>
-      <c r="AL49" s="37"/>
-      <c r="AM49" s="37"/>
-      <c r="AN49" s="37"/>
-      <c r="AO49" s="37"/>
-      <c r="AP49" s="37"/>
-      <c r="AQ49" s="37"/>
-      <c r="AR49" s="37"/>
-      <c r="AS49" s="37"/>
-      <c r="AT49" s="37"/>
-      <c r="AU49" s="37"/>
-      <c r="AV49" s="37"/>
-      <c r="AW49" s="37"/>
-      <c r="AX49" s="37"/>
-      <c r="AY49" s="37"/>
-      <c r="AZ49" s="37"/>
-      <c r="BA49" s="37"/>
-      <c r="BB49" s="37"/>
-      <c r="BC49" s="37"/>
-      <c r="BD49" s="37"/>
-      <c r="BE49" s="37"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="35"/>
+      <c r="AP49" s="35"/>
+      <c r="AQ49" s="35"/>
+      <c r="AR49" s="35"/>
+      <c r="AS49" s="35"/>
+      <c r="AT49" s="35"/>
+      <c r="AU49" s="35"/>
+      <c r="AV49" s="35"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="35"/>
+      <c r="AY49" s="35"/>
+      <c r="AZ49" s="35"/>
+      <c r="BA49" s="35"/>
+      <c r="BB49" s="35"/>
+      <c r="BC49" s="35"/>
+      <c r="BD49" s="35"/>
+      <c r="BE49" s="35"/>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="37"/>
-      <c r="AE50" s="37"/>
-      <c r="AF50" s="37"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="37"/>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="37"/>
-      <c r="AL50" s="37"/>
-      <c r="AM50" s="37"/>
-      <c r="AN50" s="37"/>
-      <c r="AO50" s="37"/>
-      <c r="AP50" s="37"/>
-      <c r="AQ50" s="37"/>
-      <c r="AR50" s="37"/>
-      <c r="AS50" s="37"/>
-      <c r="AT50" s="37"/>
-      <c r="AU50" s="37"/>
-      <c r="AV50" s="37"/>
-      <c r="AW50" s="37"/>
-      <c r="AX50" s="37"/>
-      <c r="AY50" s="37"/>
-      <c r="AZ50" s="37"/>
-      <c r="BA50" s="37"/>
-      <c r="BB50" s="37"/>
-      <c r="BC50" s="37"/>
-      <c r="BD50" s="37"/>
-      <c r="BE50" s="37"/>
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+      <c r="AF50" s="35"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="35"/>
+      <c r="AI50" s="35"/>
+      <c r="AJ50" s="35"/>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="35"/>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="35"/>
+      <c r="AP50" s="35"/>
+      <c r="AQ50" s="35"/>
+      <c r="AR50" s="35"/>
+      <c r="AS50" s="35"/>
+      <c r="AT50" s="35"/>
+      <c r="AU50" s="35"/>
+      <c r="AV50" s="35"/>
+      <c r="AW50" s="35"/>
+      <c r="AX50" s="35"/>
+      <c r="AY50" s="35"/>
+      <c r="AZ50" s="35"/>
+      <c r="BA50" s="35"/>
+      <c r="BB50" s="35"/>
+      <c r="BC50" s="35"/>
+      <c r="BD50" s="35"/>
+      <c r="BE50" s="35"/>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -10866,7 +10907,7 @@
       <c r="BD51" s="9"/>
       <c r="BE51" s="9"/>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -10925,7 +10966,7 @@
       <c r="BD52" s="11"/>
       <c r="BE52" s="12"/>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -10984,7 +11025,7 @@
       <c r="BD53" s="14"/>
       <c r="BE53" s="16"/>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -11043,7 +11084,7 @@
       <c r="BD54" s="14"/>
       <c r="BE54" s="16"/>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -11102,7 +11143,7 @@
       <c r="BD55" s="14"/>
       <c r="BE55" s="16"/>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -11161,7 +11202,7 @@
       <c r="BD56" s="14"/>
       <c r="BE56" s="16"/>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -11220,7 +11261,7 @@
       <c r="BD57" s="14"/>
       <c r="BE57" s="16"/>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -11279,7 +11320,7 @@
       <c r="BD58" s="14"/>
       <c r="BE58" s="16"/>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -11338,7 +11379,7 @@
       <c r="BD59" s="14"/>
       <c r="BE59" s="16"/>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -11397,7 +11438,7 @@
       <c r="BD60" s="14"/>
       <c r="BE60" s="16"/>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -11456,7 +11497,7 @@
       <c r="BD61" s="14"/>
       <c r="BE61" s="16"/>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -11515,7 +11556,7 @@
       <c r="BD62" s="14"/>
       <c r="BE62" s="16"/>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -11574,7 +11615,7 @@
       <c r="BD63" s="14"/>
       <c r="BE63" s="16"/>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -11633,7 +11674,7 @@
       <c r="BD64" s="14"/>
       <c r="BE64" s="16"/>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -11692,7 +11733,7 @@
       <c r="BD65" s="14"/>
       <c r="BE65" s="16"/>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -11751,7 +11792,7 @@
       <c r="BD66" s="14"/>
       <c r="BE66" s="16"/>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -11810,7 +11851,7 @@
       <c r="BD67" s="14"/>
       <c r="BE67" s="16"/>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -11869,7 +11910,7 @@
       <c r="BD68" s="14"/>
       <c r="BE68" s="16"/>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -11928,7 +11969,7 @@
       <c r="BD69" s="14"/>
       <c r="BE69" s="16"/>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -11987,7 +12028,7 @@
       <c r="BD70" s="20"/>
       <c r="BE70" s="21"/>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -12046,7 +12087,7 @@
       <c r="BD71" s="20"/>
       <c r="BE71" s="21"/>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -12105,7 +12146,7 @@
       <c r="BD72" s="20"/>
       <c r="BE72" s="21"/>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -12164,7 +12205,7 @@
       <c r="BD73" s="20"/>
       <c r="BE73" s="21"/>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -12223,7 +12264,7 @@
       <c r="BD74" s="20"/>
       <c r="BE74" s="21"/>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -12282,7 +12323,7 @@
       <c r="BD75" s="20"/>
       <c r="BE75" s="21"/>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -12341,7 +12382,7 @@
       <c r="BD76" s="20"/>
       <c r="BE76" s="21"/>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -12400,7 +12441,7 @@
       <c r="BD77" s="20"/>
       <c r="BE77" s="21"/>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -12459,7 +12500,7 @@
       <c r="BD78" s="20"/>
       <c r="BE78" s="21"/>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -12518,7 +12559,7 @@
       <c r="BD79" s="23"/>
       <c r="BE79" s="24"/>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -12577,7 +12618,7 @@
       <c r="BD80" s="20"/>
       <c r="BE80" s="20"/>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -12636,147 +12677,147 @@
       <c r="BD81" s="20"/>
       <c r="BE81" s="20"/>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A82" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="34" t="s">
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
-      <c r="Q82" s="33" t="s">
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="34"/>
+      <c r="V82" s="34"/>
+      <c r="W82" s="34"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA82" s="33"/>
+      <c r="AB82" s="33"/>
+      <c r="AC82" s="33"/>
+      <c r="AD82" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="R82" s="33"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="33"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="33"/>
-      <c r="W82" s="33"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA82" s="34"/>
-      <c r="AB82" s="34"/>
-      <c r="AC82" s="34"/>
-      <c r="AD82" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE82" s="33"/>
-      <c r="AF82" s="33"/>
-      <c r="AG82" s="33"/>
-      <c r="AH82" s="33"/>
-      <c r="AI82" s="33"/>
-      <c r="AJ82" s="33"/>
-      <c r="AK82" s="33"/>
-      <c r="AL82" s="33"/>
-      <c r="AM82" s="34" t="s">
+      <c r="AE82" s="34"/>
+      <c r="AF82" s="34"/>
+      <c r="AG82" s="34"/>
+      <c r="AH82" s="34"/>
+      <c r="AI82" s="34"/>
+      <c r="AJ82" s="34"/>
+      <c r="AK82" s="34"/>
+      <c r="AL82" s="34"/>
+      <c r="AM82" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AN82" s="34"/>
-      <c r="AO82" s="34"/>
-      <c r="AP82" s="33" t="s">
+      <c r="AN82" s="33"/>
+      <c r="AO82" s="33"/>
+      <c r="AP82" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AQ82" s="33"/>
-      <c r="AR82" s="33"/>
-      <c r="AS82" s="33"/>
-      <c r="AT82" s="33"/>
-      <c r="AU82" s="33"/>
-      <c r="AV82" s="33"/>
-      <c r="AW82" s="34" t="s">
+      <c r="AQ82" s="34"/>
+      <c r="AR82" s="34"/>
+      <c r="AS82" s="34"/>
+      <c r="AT82" s="34"/>
+      <c r="AU82" s="34"/>
+      <c r="AV82" s="34"/>
+      <c r="AW82" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AX82" s="34"/>
-      <c r="AY82" s="34"/>
-      <c r="AZ82" s="35" t="s">
-        <v>38</v>
+      <c r="AX82" s="33"/>
+      <c r="AY82" s="33"/>
+      <c r="AZ82" s="38" t="s">
+        <v>37</v>
       </c>
-      <c r="BA82" s="35"/>
-      <c r="BB82" s="35"/>
-      <c r="BC82" s="35"/>
-      <c r="BD82" s="35"/>
-      <c r="BE82" s="35"/>
+      <c r="BA82" s="38"/>
+      <c r="BB82" s="38"/>
+      <c r="BC82" s="38"/>
+      <c r="BD82" s="38"/>
+      <c r="BE82" s="38"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="33"/>
-      <c r="W83" s="33"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
-      <c r="AB83" s="34"/>
-      <c r="AC83" s="34"/>
-      <c r="AD83" s="33"/>
-      <c r="AE83" s="33"/>
-      <c r="AF83" s="33"/>
-      <c r="AG83" s="33"/>
-      <c r="AH83" s="33"/>
-      <c r="AI83" s="33"/>
-      <c r="AJ83" s="33"/>
-      <c r="AK83" s="33"/>
-      <c r="AL83" s="33"/>
-      <c r="AM83" s="34" t="s">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A83" s="43"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="34"/>
+      <c r="V83" s="34"/>
+      <c r="W83" s="34"/>
+      <c r="X83" s="34"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
+      <c r="AB83" s="33"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="34"/>
+      <c r="AE83" s="34"/>
+      <c r="AF83" s="34"/>
+      <c r="AG83" s="34"/>
+      <c r="AH83" s="34"/>
+      <c r="AI83" s="34"/>
+      <c r="AJ83" s="34"/>
+      <c r="AK83" s="34"/>
+      <c r="AL83" s="34"/>
+      <c r="AM83" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AN83" s="34"/>
-      <c r="AO83" s="34"/>
-      <c r="AP83" s="33"/>
-      <c r="AQ83" s="33"/>
-      <c r="AR83" s="33"/>
-      <c r="AS83" s="33"/>
-      <c r="AT83" s="33"/>
-      <c r="AU83" s="33"/>
-      <c r="AV83" s="33"/>
-      <c r="AW83" s="34" t="s">
+      <c r="AN83" s="33"/>
+      <c r="AO83" s="33"/>
+      <c r="AP83" s="34"/>
+      <c r="AQ83" s="34"/>
+      <c r="AR83" s="34"/>
+      <c r="AS83" s="34"/>
+      <c r="AT83" s="34"/>
+      <c r="AU83" s="34"/>
+      <c r="AV83" s="34"/>
+      <c r="AW83" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AX83" s="34"/>
-      <c r="AY83" s="34"/>
-      <c r="AZ83" s="35"/>
-      <c r="BA83" s="35"/>
-      <c r="BB83" s="35"/>
-      <c r="BC83" s="35"/>
-      <c r="BD83" s="35"/>
-      <c r="BE83" s="35"/>
+      <c r="AX83" s="33"/>
+      <c r="AY83" s="33"/>
+      <c r="AZ83" s="38"/>
+      <c r="BA83" s="38"/>
+      <c r="BB83" s="38"/>
+      <c r="BC83" s="38"/>
+      <c r="BD83" s="38"/>
+      <c r="BE83" s="38"/>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12835,133 +12876,133 @@
       <c r="BD84" s="5"/>
       <c r="BE84" s="5"/>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A85" s="36" t="s">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A85" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="37" t="s">
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y85" s="39"/>
+      <c r="Z85" s="39"/>
+      <c r="AA85" s="39"/>
+      <c r="AB85" s="39"/>
+      <c r="AC85" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y85" s="36"/>
-      <c r="Z85" s="36"/>
-      <c r="AA85" s="36"/>
-      <c r="AB85" s="36"/>
-      <c r="AC85" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD85" s="37"/>
-      <c r="AE85" s="37"/>
-      <c r="AF85" s="37"/>
-      <c r="AG85" s="37"/>
-      <c r="AH85" s="37"/>
-      <c r="AI85" s="37"/>
-      <c r="AJ85" s="37"/>
-      <c r="AK85" s="37"/>
-      <c r="AL85" s="37"/>
-      <c r="AM85" s="37"/>
-      <c r="AN85" s="37"/>
-      <c r="AO85" s="37"/>
-      <c r="AP85" s="37"/>
-      <c r="AQ85" s="37"/>
-      <c r="AR85" s="37"/>
-      <c r="AS85" s="37"/>
-      <c r="AT85" s="37"/>
-      <c r="AU85" s="37"/>
-      <c r="AV85" s="37"/>
-      <c r="AW85" s="37"/>
-      <c r="AX85" s="37"/>
-      <c r="AY85" s="37"/>
-      <c r="AZ85" s="37"/>
-      <c r="BA85" s="37"/>
-      <c r="BB85" s="37"/>
-      <c r="BC85" s="37"/>
-      <c r="BD85" s="37"/>
-      <c r="BE85" s="37"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="35"/>
+      <c r="AH85" s="35"/>
+      <c r="AI85" s="35"/>
+      <c r="AJ85" s="35"/>
+      <c r="AK85" s="35"/>
+      <c r="AL85" s="35"/>
+      <c r="AM85" s="35"/>
+      <c r="AN85" s="35"/>
+      <c r="AO85" s="35"/>
+      <c r="AP85" s="35"/>
+      <c r="AQ85" s="35"/>
+      <c r="AR85" s="35"/>
+      <c r="AS85" s="35"/>
+      <c r="AT85" s="35"/>
+      <c r="AU85" s="35"/>
+      <c r="AV85" s="35"/>
+      <c r="AW85" s="35"/>
+      <c r="AX85" s="35"/>
+      <c r="AY85" s="35"/>
+      <c r="AZ85" s="35"/>
+      <c r="BA85" s="35"/>
+      <c r="BB85" s="35"/>
+      <c r="BC85" s="35"/>
+      <c r="BD85" s="35"/>
+      <c r="BE85" s="35"/>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="36"/>
-      <c r="Z86" s="36"/>
-      <c r="AA86" s="36"/>
-      <c r="AB86" s="36"/>
-      <c r="AC86" s="37"/>
-      <c r="AD86" s="37"/>
-      <c r="AE86" s="37"/>
-      <c r="AF86" s="37"/>
-      <c r="AG86" s="37"/>
-      <c r="AH86" s="37"/>
-      <c r="AI86" s="37"/>
-      <c r="AJ86" s="37"/>
-      <c r="AK86" s="37"/>
-      <c r="AL86" s="37"/>
-      <c r="AM86" s="37"/>
-      <c r="AN86" s="37"/>
-      <c r="AO86" s="37"/>
-      <c r="AP86" s="37"/>
-      <c r="AQ86" s="37"/>
-      <c r="AR86" s="37"/>
-      <c r="AS86" s="37"/>
-      <c r="AT86" s="37"/>
-      <c r="AU86" s="37"/>
-      <c r="AV86" s="37"/>
-      <c r="AW86" s="37"/>
-      <c r="AX86" s="37"/>
-      <c r="AY86" s="37"/>
-      <c r="AZ86" s="37"/>
-      <c r="BA86" s="37"/>
-      <c r="BB86" s="37"/>
-      <c r="BC86" s="37"/>
-      <c r="BD86" s="37"/>
-      <c r="BE86" s="37"/>
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="39"/>
+      <c r="Y86" s="39"/>
+      <c r="Z86" s="39"/>
+      <c r="AA86" s="39"/>
+      <c r="AB86" s="39"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
+      <c r="AI86" s="35"/>
+      <c r="AJ86" s="35"/>
+      <c r="AK86" s="35"/>
+      <c r="AL86" s="35"/>
+      <c r="AM86" s="35"/>
+      <c r="AN86" s="35"/>
+      <c r="AO86" s="35"/>
+      <c r="AP86" s="35"/>
+      <c r="AQ86" s="35"/>
+      <c r="AR86" s="35"/>
+      <c r="AS86" s="35"/>
+      <c r="AT86" s="35"/>
+      <c r="AU86" s="35"/>
+      <c r="AV86" s="35"/>
+      <c r="AW86" s="35"/>
+      <c r="AX86" s="35"/>
+      <c r="AY86" s="35"/>
+      <c r="AZ86" s="35"/>
+      <c r="BA86" s="35"/>
+      <c r="BB86" s="35"/>
+      <c r="BC86" s="35"/>
+      <c r="BD86" s="35"/>
+      <c r="BE86" s="35"/>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -13020,7 +13061,7 @@
       <c r="BD87" s="9"/>
       <c r="BE87" s="9"/>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -13079,7 +13120,7 @@
       <c r="BD88" s="11"/>
       <c r="BE88" s="12"/>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -13138,7 +13179,7 @@
       <c r="BD89" s="14"/>
       <c r="BE89" s="16"/>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -13197,7 +13238,7 @@
       <c r="BD90" s="14"/>
       <c r="BE90" s="16"/>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -13256,7 +13297,7 @@
       <c r="BD91" s="14"/>
       <c r="BE91" s="16"/>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -13315,7 +13356,7 @@
       <c r="BD92" s="14"/>
       <c r="BE92" s="16"/>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -13374,7 +13415,7 @@
       <c r="BD93" s="14"/>
       <c r="BE93" s="16"/>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -13433,7 +13474,7 @@
       <c r="BD94" s="14"/>
       <c r="BE94" s="16"/>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -13492,7 +13533,7 @@
       <c r="BD95" s="14"/>
       <c r="BE95" s="16"/>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -13551,7 +13592,7 @@
       <c r="BD96" s="14"/>
       <c r="BE96" s="16"/>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -13610,7 +13651,7 @@
       <c r="BD97" s="14"/>
       <c r="BE97" s="16"/>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -13669,7 +13710,7 @@
       <c r="BD98" s="14"/>
       <c r="BE98" s="16"/>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -13728,7 +13769,7 @@
       <c r="BD99" s="14"/>
       <c r="BE99" s="16"/>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -13787,7 +13828,7 @@
       <c r="BD100" s="14"/>
       <c r="BE100" s="16"/>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -13846,7 +13887,7 @@
       <c r="BD101" s="14"/>
       <c r="BE101" s="16"/>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -13905,7 +13946,7 @@
       <c r="BD102" s="14"/>
       <c r="BE102" s="16"/>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -13964,7 +14005,7 @@
       <c r="BD103" s="14"/>
       <c r="BE103" s="16"/>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -14023,7 +14064,7 @@
       <c r="BD104" s="14"/>
       <c r="BE104" s="16"/>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -14082,7 +14123,7 @@
       <c r="BD105" s="14"/>
       <c r="BE105" s="16"/>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="19"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
@@ -14141,7 +14182,7 @@
       <c r="BD106" s="20"/>
       <c r="BE106" s="21"/>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
@@ -14200,7 +14241,7 @@
       <c r="BD107" s="20"/>
       <c r="BE107" s="21"/>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
@@ -14259,7 +14300,7 @@
       <c r="BD108" s="20"/>
       <c r="BE108" s="21"/>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
@@ -14318,7 +14359,7 @@
       <c r="BD109" s="20"/>
       <c r="BE109" s="21"/>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
@@ -14377,7 +14418,7 @@
       <c r="BD110" s="20"/>
       <c r="BE110" s="21"/>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -14436,7 +14477,7 @@
       <c r="BD111" s="20"/>
       <c r="BE111" s="21"/>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
@@ -14495,7 +14536,7 @@
       <c r="BD112" s="20"/>
       <c r="BE112" s="21"/>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -14554,7 +14595,7 @@
       <c r="BD113" s="20"/>
       <c r="BE113" s="21"/>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -14613,7 +14654,7 @@
       <c r="BD114" s="20"/>
       <c r="BE114" s="21"/>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -14674,11 +14715,48 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AL2"/>
-    <mergeCell ref="F4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="AC4:BE5"/>
+    <mergeCell ref="AD83:AL83"/>
+    <mergeCell ref="AM83:AO83"/>
+    <mergeCell ref="AP83:AV83"/>
+    <mergeCell ref="AW83:AY83"/>
+    <mergeCell ref="AZ83:BE83"/>
+    <mergeCell ref="A85:E86"/>
+    <mergeCell ref="F85:W86"/>
+    <mergeCell ref="X85:AB86"/>
+    <mergeCell ref="AC85:BE86"/>
+    <mergeCell ref="A82:L83"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="Q82:Y82"/>
+    <mergeCell ref="Z82:AC82"/>
+    <mergeCell ref="AD82:AL82"/>
+    <mergeCell ref="AM82:AO82"/>
+    <mergeCell ref="AP82:AV82"/>
+    <mergeCell ref="AW82:AY82"/>
+    <mergeCell ref="AZ82:BE82"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="Q83:Y83"/>
+    <mergeCell ref="Z83:AC83"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="AP46:AV46"/>
+    <mergeCell ref="AW46:AY46"/>
+    <mergeCell ref="AZ46:BE46"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="AP47:AV47"/>
+    <mergeCell ref="AW47:AY47"/>
+    <mergeCell ref="AZ47:BE47"/>
+    <mergeCell ref="A46:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="Q47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AL47"/>
+    <mergeCell ref="F49:W50"/>
+    <mergeCell ref="X49:AB50"/>
+    <mergeCell ref="AC49:BE50"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="Q46:Y46"/>
+    <mergeCell ref="Z46:AC46"/>
+    <mergeCell ref="AD46:AL46"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="A4:E5"/>
@@ -14695,48 +14773,11 @@
     <mergeCell ref="AD1:AL1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="AC49:BE50"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="Q46:Y46"/>
-    <mergeCell ref="Z46:AC46"/>
-    <mergeCell ref="AD46:AL46"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="AP46:AV46"/>
-    <mergeCell ref="AW46:AY46"/>
-    <mergeCell ref="AZ46:BE46"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="AP47:AV47"/>
-    <mergeCell ref="AW47:AY47"/>
-    <mergeCell ref="AZ47:BE47"/>
-    <mergeCell ref="A46:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="Q47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AL47"/>
-    <mergeCell ref="F49:W50"/>
-    <mergeCell ref="X49:AB50"/>
-    <mergeCell ref="A85:E86"/>
-    <mergeCell ref="F85:W86"/>
-    <mergeCell ref="X85:AB86"/>
-    <mergeCell ref="AC85:BE86"/>
-    <mergeCell ref="A82:L83"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="Q82:Y82"/>
-    <mergeCell ref="Z82:AC82"/>
-    <mergeCell ref="AD82:AL82"/>
-    <mergeCell ref="AM82:AO82"/>
-    <mergeCell ref="AP82:AV82"/>
-    <mergeCell ref="AW82:AY82"/>
-    <mergeCell ref="AZ82:BE82"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="Q83:Y83"/>
-    <mergeCell ref="Z83:AC83"/>
-    <mergeCell ref="AD83:AL83"/>
-    <mergeCell ref="AM83:AO83"/>
-    <mergeCell ref="AP83:AV83"/>
-    <mergeCell ref="AW83:AY83"/>
-    <mergeCell ref="AZ83:BE83"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AL2"/>
+    <mergeCell ref="F4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="AC4:BE5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -14751,97 +14792,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:HY41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="BR15" sqref="BR15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="55" width="2.5" style="1" customWidth="1"/>
-    <col min="56" max="955" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="55" width="2.453125" style="1" customWidth="1"/>
+    <col min="56" max="955" width="2.6328125" style="1" customWidth="1"/>
     <col min="956" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="33" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="34" t="s">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="33" t="s">
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="34" t="s">
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="35" t="s">
-        <v>38</v>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="38" t="s">
+        <v>37</v>
       </c>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -15021,66 +15062,66 @@
       <c r="HX1" s="3"/>
       <c r="HY1" s="3"/>
     </row>
-    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="34" t="s">
+    <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="34" t="s">
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -15260,7 +15301,7 @@
       <c r="HX2" s="3"/>
       <c r="HY2" s="3"/>
     </row>
-    <row r="3" spans="1:233" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:233" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -15495,43 +15536,43 @@
       <c r="HX3" s="3"/>
       <c r="HY3" s="3"/>
     </row>
-    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="74" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
       <c r="AC4" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD4" s="67"/>
       <c r="AE4" s="67"/>
@@ -15738,62 +15779,62 @@
       <c r="HX4" s="3"/>
       <c r="HY4" s="3"/>
     </row>
-    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="68"/>
-      <c r="AY5" s="68"/>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="68"/>
-      <c r="BC5" s="68"/>
+    <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AP5" s="73"/>
+      <c r="AQ5" s="73"/>
+      <c r="AR5" s="73"/>
+      <c r="AS5" s="73"/>
+      <c r="AT5" s="73"/>
+      <c r="AU5" s="73"/>
+      <c r="AV5" s="73"/>
+      <c r="AW5" s="73"/>
+      <c r="AX5" s="73"/>
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="73"/>
+      <c r="BA5" s="73"/>
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="73"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -15973,7 +16014,7 @@
       <c r="HX5" s="3"/>
       <c r="HY5" s="3"/>
     </row>
-    <row r="6" spans="1:233" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:233" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -16193,72 +16234,72 @@
       <c r="HQ6" s="3"/>
       <c r="HR6" s="3"/>
     </row>
-    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44" t="s">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -16387,62 +16428,62 @@
       <c r="HI7" s="3"/>
       <c r="HJ7" s="3"/>
     </row>
-    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
+    <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -16571,72 +16612,72 @@
       <c r="HI8" s="3"/>
       <c r="HJ8" s="3"/>
     </row>
-    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>39</v>
+    <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>38</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50" t="s">
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="51" t="s">
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="69" t="s">
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="69"/>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69"/>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="69"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -16765,70 +16806,70 @@
       <c r="HI9" s="3"/>
       <c r="HJ9" s="3"/>
     </row>
-    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>40</v>
+    <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>39</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="53" t="s">
-        <v>36</v>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="52" t="s">
+        <v>64</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50" t="s">
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="51" t="s">
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -16957,70 +16998,70 @@
       <c r="HI10" s="3"/>
       <c r="HJ10" s="3"/>
     </row>
-    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="53" t="s">
-        <v>44</v>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="52" t="s">
+        <v>43</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50" t="s">
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51" t="s">
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="74"/>
+      <c r="BC11" s="74"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -17149,70 +17190,70 @@
       <c r="HI11" s="3"/>
       <c r="HJ11" s="3"/>
     </row>
-    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>58</v>
+    <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="52" t="s">
+        <v>57</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="53" t="s">
-        <v>37</v>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="52" t="s">
+        <v>36</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50" t="s">
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="51" t="s">
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-      <c r="BC12" s="69"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -17341,70 +17382,70 @@
       <c r="HI12" s="3"/>
       <c r="HJ12" s="3"/>
     </row>
-    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>41</v>
+    <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>40</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="53" t="s">
-        <v>45</v>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="52" t="s">
+        <v>44</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50" t="s">
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="51" t="s">
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="74"/>
+      <c r="BA13" s="74"/>
+      <c r="BB13" s="74"/>
+      <c r="BC13" s="74"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -17533,70 +17574,70 @@
       <c r="HI13" s="3"/>
       <c r="HJ13" s="3"/>
     </row>
-    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>59</v>
+    <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>58</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49" t="s">
-        <v>47</v>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51" t="s">
+        <v>46</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="51" t="s">
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="63"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="63"/>
-      <c r="AP14" s="63"/>
-      <c r="AQ14" s="63"/>
-      <c r="AR14" s="63"/>
-      <c r="AS14" s="63"/>
-      <c r="AT14" s="63"/>
-      <c r="AU14" s="63"/>
-      <c r="AV14" s="63"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="63"/>
-      <c r="AZ14" s="63"/>
-      <c r="BA14" s="63"/>
-      <c r="BB14" s="63"/>
-      <c r="BC14" s="63"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="60"/>
+      <c r="AU14" s="60"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="60"/>
+      <c r="BC14" s="60"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -17725,70 +17766,70 @@
       <c r="HI14" s="3"/>
       <c r="HJ14" s="3"/>
     </row>
-    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>60</v>
+    <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>59</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49" t="s">
-        <v>51</v>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51" t="s">
+        <v>50</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50" t="s">
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51" t="s">
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
-      <c r="BC15" s="63"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="60"/>
+      <c r="AU15" s="60"/>
+      <c r="AV15" s="60"/>
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="60"/>
+      <c r="AY15" s="60"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="60"/>
+      <c r="BB15" s="60"/>
+      <c r="BC15" s="60"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="CP15" s="3"/>
@@ -17917,70 +17958,70 @@
       <c r="HI15" s="3"/>
       <c r="HJ15" s="3"/>
     </row>
-    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="50" t="s">
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51" t="s">
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="63"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="63"/>
-      <c r="BC16" s="63"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="60"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="60"/>
+      <c r="AT16" s="60"/>
+      <c r="AU16" s="60"/>
+      <c r="AV16" s="60"/>
+      <c r="AW16" s="60"/>
+      <c r="AX16" s="60"/>
+      <c r="AY16" s="60"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="60"/>
+      <c r="BB16" s="60"/>
+      <c r="BC16" s="60"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
       <c r="CP16" s="3"/>
@@ -18109,70 +18150,70 @@
       <c r="HI16" s="3"/>
       <c r="HJ16" s="3"/>
     </row>
-    <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="50" t="s">
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="51" t="s">
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="66"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="77"/>
+      <c r="AT17" s="77"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="77"/>
+      <c r="AZ17" s="77"/>
+      <c r="BA17" s="77"/>
+      <c r="BB17" s="77"/>
+      <c r="BC17" s="78"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="CP17" s="3"/>
@@ -18301,7 +18342,7 @@
       <c r="HI17" s="3"/>
       <c r="HJ17" s="3"/>
     </row>
-    <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -18485,7 +18526,7 @@
       <c r="HI18" s="3"/>
       <c r="HJ18" s="3"/>
     </row>
-    <row r="19" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -18669,80 +18710,80 @@
       <c r="HI19" s="3"/>
       <c r="HJ19" s="3"/>
     </row>
-    <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+    <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="59" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60" t="s">
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="59" t="s">
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="60" t="s">
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AO20" s="60"/>
-      <c r="AP20" s="60"/>
-      <c r="AQ20" s="60"/>
-      <c r="AR20" s="60"/>
-      <c r="AS20" s="60"/>
-      <c r="AT20" s="60"/>
-      <c r="AU20" s="59" t="s">
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AV20" s="59"/>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="78" t="s">
-        <v>38</v>
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="63" t="s">
+        <v>37</v>
       </c>
-      <c r="AY20" s="78"/>
-      <c r="AZ20" s="78"/>
-      <c r="BA20" s="78"/>
-      <c r="BB20" s="78"/>
-      <c r="BC20" s="78"/>
+      <c r="AY20" s="63"/>
+      <c r="AZ20" s="63"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
       <c r="BD20" s="6"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="3"/>
@@ -18886,70 +18927,70 @@
       <c r="GU20" s="3"/>
       <c r="GV20" s="3"/>
     </row>
-    <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="61" t="s">
+    <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="61" t="s">
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="77"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="77"/>
-      <c r="BA21" s="77"/>
-      <c r="BB21" s="77"/>
-      <c r="BC21" s="77"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="57"/>
+      <c r="AY21" s="57"/>
+      <c r="AZ21" s="57"/>
+      <c r="BA21" s="57"/>
+      <c r="BB21" s="57"/>
+      <c r="BC21" s="57"/>
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
     </row>
-    <row r="22" spans="1:218" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:218" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -19008,133 +19049,133 @@
       <c r="BD22" s="7"/>
       <c r="BE22" s="7"/>
     </row>
-    <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="37"/>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="37"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="37"/>
-      <c r="AX23" s="37"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="37"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="37"/>
-      <c r="BC23" s="37"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="37"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="35"/>
+      <c r="AS23" s="35"/>
+      <c r="AT23" s="35"/>
+      <c r="AU23" s="35"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="35"/>
+      <c r="AX23" s="35"/>
+      <c r="AY23" s="35"/>
+      <c r="AZ23" s="35"/>
+      <c r="BA23" s="35"/>
+      <c r="BB23" s="35"/>
+      <c r="BC23" s="35"/>
+      <c r="BD23" s="35"/>
+      <c r="BE23" s="35"/>
     </row>
-    <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="37"/>
-      <c r="AO24" s="37"/>
-      <c r="AP24" s="37"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="37"/>
-      <c r="AU24" s="37"/>
-      <c r="AV24" s="37"/>
-      <c r="AW24" s="37"/>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="37"/>
-      <c r="AZ24" s="37"/>
-      <c r="BA24" s="37"/>
-      <c r="BB24" s="37"/>
-      <c r="BC24" s="37"/>
-      <c r="BD24" s="37"/>
-      <c r="BE24" s="37"/>
+    <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="35"/>
+      <c r="AZ24" s="35"/>
+      <c r="BA24" s="35"/>
+      <c r="BB24" s="35"/>
+      <c r="BC24" s="35"/>
+      <c r="BD24" s="35"/>
+      <c r="BE24" s="35"/>
     </row>
-    <row r="25" spans="1:218" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:218" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -19193,454 +19234,454 @@
       <c r="BD25" s="7"/>
       <c r="BE25" s="7"/>
     </row>
-    <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36" t="s">
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="44" t="s">
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="36" t="s">
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
-      <c r="BC26" s="36"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="39"/>
+      <c r="AU26" s="39"/>
+      <c r="AV26" s="39"/>
+      <c r="AW26" s="39"/>
+      <c r="AX26" s="39"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="39"/>
     </row>
-    <row r="27" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="36"/>
-      <c r="AW27" s="36"/>
-      <c r="AX27" s="36"/>
-      <c r="AY27" s="36"/>
-      <c r="AZ27" s="36"/>
-      <c r="BA27" s="36"/>
-      <c r="BB27" s="36"/>
-      <c r="BC27" s="36"/>
+    <row r="27" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="39"/>
+      <c r="AV27" s="39"/>
+      <c r="AW27" s="39"/>
+      <c r="AX27" s="39"/>
+      <c r="AY27" s="39"/>
+      <c r="AZ27" s="39"/>
+      <c r="BA27" s="39"/>
+      <c r="BB27" s="39"/>
+      <c r="BC27" s="39"/>
     </row>
-    <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
-        <v>54</v>
+    <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>53</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="49" t="s">
-        <v>57</v>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="51" t="s">
+        <v>56</v>
       </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="53" t="s">
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="54" t="s">
-        <v>46</v>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="53" t="s">
+        <v>45</v>
       </c>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="55"/>
-      <c r="AP28" s="55"/>
-      <c r="AQ28" s="55"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55"/>
-      <c r="AT28" s="55"/>
-      <c r="AU28" s="55"/>
-      <c r="AV28" s="55"/>
-      <c r="AW28" s="55"/>
-      <c r="AX28" s="55"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="55"/>
-      <c r="BA28" s="55"/>
-      <c r="BB28" s="55"/>
-      <c r="BC28" s="55"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="54"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="54"/>
+      <c r="AL28" s="54"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="54"/>
+      <c r="AO28" s="54"/>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="54"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="54"/>
+      <c r="AU28" s="54"/>
+      <c r="AV28" s="54"/>
+      <c r="AW28" s="54"/>
+      <c r="AX28" s="54"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="54"/>
+      <c r="BB28" s="54"/>
+      <c r="BC28" s="54"/>
     </row>
-    <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>55</v>
+    <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
+        <v>41</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="52" t="s">
-        <v>56</v>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="79" t="s">
+        <v>42</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53" t="s">
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="54" t="s">
-        <v>46</v>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="53" t="s">
+        <v>45</v>
       </c>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
-      <c r="AO29" s="55"/>
-      <c r="AP29" s="55"/>
-      <c r="AQ29" s="55"/>
-      <c r="AR29" s="55"/>
-      <c r="AS29" s="55"/>
-      <c r="AT29" s="55"/>
-      <c r="AU29" s="55"/>
-      <c r="AV29" s="55"/>
-      <c r="AW29" s="55"/>
-      <c r="AX29" s="55"/>
-      <c r="AY29" s="55"/>
-      <c r="AZ29" s="55"/>
-      <c r="BA29" s="55"/>
-      <c r="BB29" s="55"/>
-      <c r="BC29" s="55"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="54"/>
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="54"/>
     </row>
-    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
-      <c r="AO30" s="55"/>
-      <c r="AP30" s="55"/>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
-      <c r="AT30" s="55"/>
-      <c r="AU30" s="55"/>
-      <c r="AV30" s="55"/>
-      <c r="AW30" s="55"/>
-      <c r="AX30" s="55"/>
-      <c r="AY30" s="55"/>
-      <c r="AZ30" s="55"/>
-      <c r="BA30" s="55"/>
-      <c r="BB30" s="55"/>
-      <c r="BC30" s="55"/>
+    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+      <c r="AL30" s="54"/>
+      <c r="AM30" s="54"/>
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="54"/>
+      <c r="AU30" s="54"/>
+      <c r="AV30" s="54"/>
+      <c r="AW30" s="54"/>
+      <c r="AX30" s="54"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="54"/>
+      <c r="BB30" s="54"/>
+      <c r="BC30" s="54"/>
     </row>
-    <row r="32" spans="1:218" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
+    <row r="32" spans="1:218" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="61" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="62" t="s">
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="61"/>
-      <c r="AA32" s="61"/>
-      <c r="AB32" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="61" t="s">
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AL32" s="61"/>
-      <c r="AM32" s="61"/>
-      <c r="AN32" s="62" t="s">
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="61" t="s">
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
+      <c r="AS32" s="46"/>
+      <c r="AT32" s="46"/>
+      <c r="AU32" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AV32" s="61"/>
-      <c r="AW32" s="61"/>
-      <c r="AX32" s="35" t="s">
-        <v>38</v>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+      <c r="AX32" s="38" t="s">
+        <v>37</v>
       </c>
-      <c r="AY32" s="35"/>
-      <c r="AZ32" s="35"/>
-      <c r="BA32" s="35"/>
-      <c r="BB32" s="35"/>
-      <c r="BC32" s="35"/>
+      <c r="AY32" s="38"/>
+      <c r="AZ32" s="38"/>
+      <c r="BA32" s="38"/>
+      <c r="BB32" s="38"/>
+      <c r="BC32" s="38"/>
     </row>
-    <row r="33" spans="1:57" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="61"/>
-      <c r="AA33" s="61"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="61" t="s">
+    <row r="33" spans="1:57" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="46"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="61"/>
-      <c r="AN33" s="62"/>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="61" t="s">
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="AU33" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AV33" s="61"/>
-      <c r="AW33" s="61"/>
-      <c r="AX33" s="77"/>
-      <c r="AY33" s="77"/>
-      <c r="AZ33" s="77"/>
-      <c r="BA33" s="77"/>
-      <c r="BB33" s="77"/>
-      <c r="BC33" s="77"/>
+      <c r="AV33" s="47"/>
+      <c r="AW33" s="47"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
     </row>
-    <row r="34" spans="1:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -19697,133 +19738,133 @@
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
     </row>
-    <row r="35" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="37"/>
-      <c r="AT35" s="37"/>
-      <c r="AU35" s="37"/>
-      <c r="AV35" s="37"/>
-      <c r="AW35" s="37"/>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BB35" s="37"/>
-      <c r="BC35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BE35" s="37"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="35"/>
+      <c r="AQ35" s="35"/>
+      <c r="AR35" s="35"/>
+      <c r="AS35" s="35"/>
+      <c r="AT35" s="35"/>
+      <c r="AU35" s="35"/>
+      <c r="AV35" s="35"/>
+      <c r="AW35" s="35"/>
+      <c r="AX35" s="35"/>
+      <c r="AY35" s="35"/>
+      <c r="AZ35" s="35"/>
+      <c r="BA35" s="35"/>
+      <c r="BB35" s="35"/>
+      <c r="BC35" s="35"/>
+      <c r="BD35" s="35"/>
+      <c r="BE35" s="35"/>
     </row>
-    <row r="36" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
-      <c r="AO36" s="37"/>
-      <c r="AP36" s="37"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="37"/>
-      <c r="AT36" s="37"/>
-      <c r="AU36" s="37"/>
-      <c r="AV36" s="37"/>
-      <c r="AW36" s="37"/>
-      <c r="AX36" s="37"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="37"/>
-      <c r="BD36" s="37"/>
-      <c r="BE36" s="37"/>
+    <row r="36" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="35"/>
+      <c r="AM36" s="35"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="35"/>
+      <c r="AP36" s="35"/>
+      <c r="AQ36" s="35"/>
+      <c r="AR36" s="35"/>
+      <c r="AS36" s="35"/>
+      <c r="AT36" s="35"/>
+      <c r="AU36" s="35"/>
+      <c r="AV36" s="35"/>
+      <c r="AW36" s="35"/>
+      <c r="AX36" s="35"/>
+      <c r="AY36" s="35"/>
+      <c r="AZ36" s="35"/>
+      <c r="BA36" s="35"/>
+      <c r="BB36" s="35"/>
+      <c r="BC36" s="35"/>
+      <c r="BD36" s="35"/>
+      <c r="BE36" s="35"/>
     </row>
-    <row r="37" spans="1:57" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -19880,356 +19921,276 @@
       <c r="BB37" s="8"/>
       <c r="BC37" s="8"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36" t="s">
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="44" t="s">
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="36" t="s">
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
-      <c r="AW38" s="36"/>
-      <c r="AX38" s="36"/>
-      <c r="AY38" s="36"/>
-      <c r="AZ38" s="36"/>
-      <c r="BA38" s="36"/>
-      <c r="BB38" s="36"/>
-      <c r="BC38" s="36"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="39"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="39"/>
+      <c r="AS38" s="39"/>
+      <c r="AT38" s="39"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="39"/>
+      <c r="AW38" s="39"/>
+      <c r="AX38" s="39"/>
+      <c r="AY38" s="39"/>
+      <c r="AZ38" s="39"/>
+      <c r="BA38" s="39"/>
+      <c r="BB38" s="39"/>
+      <c r="BC38" s="39"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="36"/>
-      <c r="AY39" s="36"/>
-      <c r="AZ39" s="36"/>
-      <c r="BA39" s="36"/>
-      <c r="BB39" s="36"/>
-      <c r="BC39" s="36"/>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="39"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39"/>
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="AV39" s="39"/>
+      <c r="AW39" s="39"/>
+      <c r="AX39" s="39"/>
+      <c r="AY39" s="39"/>
+      <c r="AZ39" s="39"/>
+      <c r="BA39" s="39"/>
+      <c r="BB39" s="39"/>
+      <c r="BC39" s="39"/>
     </row>
-    <row r="40" spans="1:57" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="53" t="s">
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="54" t="s">
-        <v>43</v>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="53" t="s">
+        <v>55</v>
       </c>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="55" t="s">
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AF40" s="55"/>
-      <c r="AG40" s="55"/>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55"/>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55"/>
-      <c r="AT40" s="55"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="55"/>
-      <c r="AW40" s="55"/>
-      <c r="AX40" s="55"/>
-      <c r="AY40" s="55"/>
-      <c r="AZ40" s="55"/>
-      <c r="BA40" s="55"/>
-      <c r="BB40" s="55"/>
-      <c r="BC40" s="55"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+      <c r="AH40" s="54"/>
+      <c r="AI40" s="54"/>
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="54"/>
+      <c r="AN40" s="54"/>
+      <c r="AO40" s="54"/>
+      <c r="AP40" s="54"/>
+      <c r="AQ40" s="54"/>
+      <c r="AR40" s="54"/>
+      <c r="AS40" s="54"/>
+      <c r="AT40" s="54"/>
+      <c r="AU40" s="54"/>
+      <c r="AV40" s="54"/>
+      <c r="AW40" s="54"/>
+      <c r="AX40" s="54"/>
+      <c r="AY40" s="54"/>
+      <c r="AZ40" s="54"/>
+      <c r="BA40" s="54"/>
+      <c r="BB40" s="54"/>
+      <c r="BC40" s="54"/>
     </row>
-    <row r="41" spans="1:57" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="55"/>
-      <c r="AG41" s="55"/>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="55"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="55"/>
-      <c r="AN41" s="55"/>
-      <c r="AO41" s="55"/>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="55"/>
-      <c r="AT41" s="55"/>
-      <c r="AU41" s="55"/>
-      <c r="AV41" s="55"/>
-      <c r="AW41" s="55"/>
-      <c r="AX41" s="55"/>
-      <c r="AY41" s="55"/>
-      <c r="AZ41" s="55"/>
-      <c r="BA41" s="55"/>
-      <c r="BB41" s="55"/>
-      <c r="BC41" s="55"/>
+    <row r="41" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="54"/>
+      <c r="AJ41" s="54"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="54"/>
+      <c r="AO41" s="54"/>
+      <c r="AP41" s="54"/>
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
+      <c r="AT41" s="54"/>
+      <c r="AU41" s="54"/>
+      <c r="AV41" s="54"/>
+      <c r="AW41" s="54"/>
+      <c r="AX41" s="54"/>
+      <c r="AY41" s="54"/>
+      <c r="AZ41" s="54"/>
+      <c r="BA41" s="54"/>
+      <c r="BB41" s="54"/>
+      <c r="BC41" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="AE38:BC39"/>
-    <mergeCell ref="AB32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AT32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AX32:BC32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:W33"/>
-    <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="AB33:AJ33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AN33:AT33"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="X32:AA32"/>
-    <mergeCell ref="A35:E36"/>
-    <mergeCell ref="F35:W36"/>
-    <mergeCell ref="X35:AB36"/>
-    <mergeCell ref="A38:H39"/>
-    <mergeCell ref="I38:P39"/>
-    <mergeCell ref="Q38:V39"/>
-    <mergeCell ref="W38:AD39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I40:P40"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="W40:AD40"/>
-    <mergeCell ref="AE40:BC40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="I41:P41"/>
-    <mergeCell ref="Q41:V41"/>
-    <mergeCell ref="W41:AD41"/>
-    <mergeCell ref="AE41:BC41"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AX33:BC33"/>
-    <mergeCell ref="W10:AD10"/>
-    <mergeCell ref="W11:AD11"/>
-    <mergeCell ref="W12:AD12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AN20:AT20"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="AX20:BC20"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AN21:AT21"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AX21:BC21"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="W16:AD16"/>
-    <mergeCell ref="A32:J33"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AJ2"/>
-    <mergeCell ref="A7:H8"/>
-    <mergeCell ref="Q7:V8"/>
-    <mergeCell ref="W7:AD8"/>
-    <mergeCell ref="AE7:BC8"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="F4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="I7:P8"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="AC4:BC5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="AE9:BC13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="AC23:BE24"/>
+    <mergeCell ref="AC35:BE36"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AD29"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="A23:E24"/>
+    <mergeCell ref="F23:W24"/>
+    <mergeCell ref="X23:AB24"/>
+    <mergeCell ref="A26:H27"/>
+    <mergeCell ref="I26:P27"/>
+    <mergeCell ref="Q26:V27"/>
+    <mergeCell ref="W26:AD27"/>
+    <mergeCell ref="AE26:BC27"/>
     <mergeCell ref="AE28:BC28"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="Q14:V14"/>
@@ -20254,30 +20215,110 @@
     <mergeCell ref="I17:P17"/>
     <mergeCell ref="Q17:V17"/>
     <mergeCell ref="W17:AD17"/>
-    <mergeCell ref="AC23:BE24"/>
-    <mergeCell ref="AC35:BE36"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="W30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="A23:E24"/>
-    <mergeCell ref="F23:W24"/>
-    <mergeCell ref="X23:AB24"/>
-    <mergeCell ref="A26:H27"/>
-    <mergeCell ref="I26:P27"/>
-    <mergeCell ref="Q26:V27"/>
-    <mergeCell ref="W26:AD27"/>
-    <mergeCell ref="AE26:BC27"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="W9:AD9"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AJ2"/>
+    <mergeCell ref="A7:H8"/>
+    <mergeCell ref="Q7:V8"/>
+    <mergeCell ref="W7:AD8"/>
+    <mergeCell ref="AE7:BC8"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="F4:W5"/>
+    <mergeCell ref="X4:AB5"/>
+    <mergeCell ref="I7:P8"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AC4:BC5"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="AE14:BC14"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AN20:AT20"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="AX20:BC20"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="W16:AD16"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="AE9:BC13"/>
+    <mergeCell ref="AE40:BC40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:P41"/>
+    <mergeCell ref="Q41:V41"/>
+    <mergeCell ref="W41:AD41"/>
+    <mergeCell ref="AE41:BC41"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AX33:BC33"/>
+    <mergeCell ref="W10:AD10"/>
+    <mergeCell ref="W11:AD11"/>
+    <mergeCell ref="W12:AD12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AN21:AT21"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AX21:BC21"/>
+    <mergeCell ref="A32:J33"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AD28"/>
+    <mergeCell ref="A35:E36"/>
+    <mergeCell ref="F35:W36"/>
+    <mergeCell ref="X35:AB36"/>
+    <mergeCell ref="A38:H39"/>
+    <mergeCell ref="I38:P39"/>
+    <mergeCell ref="Q38:V39"/>
+    <mergeCell ref="W38:AD39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="Q40:V40"/>
+    <mergeCell ref="W40:AD40"/>
+    <mergeCell ref="AE38:BC39"/>
+    <mergeCell ref="AB32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX32:BC32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB33:AJ33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AN33:AT33"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="X32:AA32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q28:Q30 Q40:Q41 Q9:Q19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q28:Q30 Q40:Q41 Q9:Q19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
@@ -20293,60 +20334,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -20367,6 +20408,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -20498,12 +20545,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F47AB981-5465-4A5E-B3A4-3DEA8C6872DF}">
   <ds:schemaRefs>
@@ -20513,6 +20554,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35677D65-3D0F-490F-83A5-B1CF9CE32A7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ED4C903-48AC-4CC9-AF40-0B10C457B2BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20528,13 +20578,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35677D65-3D0F-490F-83A5-B1CF9CE32A7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-7-外部設計書(画面・帳票仕様)_ショッピング_会員退会.xlsx
+++ b/010-外部設計/014-画面レイアウト_画面入出力項目一覧/014-7-外部設計書(画面・帳票仕様)_ショッピング_会員退会.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796056C0-53FC-4B40-B170-3620C9A59759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6F83EC-43F6-4B60-8B28-EC871A625667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="240" windowWidth="14196" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト図" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">画面レイアウト図!$A$1:$BE$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面入出力項目一覧!$A$1:$BC$43</definedName>
     <definedName name="部品種別">OFFSET('（データリスト）'!$A$1,0,0,COUNTA('（データリスト）'!$A:$A),1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="W27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="W39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
   <si>
     <t>業務</t>
   </si>
@@ -532,6 +532,18 @@
     <t>password1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -540,7 +552,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -593,6 +605,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B050"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -886,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,6 +1012,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1025,6 +1060,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,6 +1108,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1067,6 +1129,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1078,9 +1143,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,9 +1170,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1153,154 +1212,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>164495</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="217714" y="1262743"/>
-          <a:ext cx="11921067" cy="6705600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="740229" y="18854057"/>
-          <a:ext cx="9285514" cy="5223102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>195942</xdr:colOff>
       <xdr:row>87</xdr:row>
@@ -1326,7 +1237,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1369,6 +1280,102 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>13305</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA824CD7-58F2-4A2A-87F4-BF61CB9709DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect b="5484"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="217715" y="1262744"/>
+          <a:ext cx="11998476" cy="6379028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>24190</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E0C6F8-AF21-4243-AB26-A32F1D19E183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="6680"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707572" y="9481458"/>
+          <a:ext cx="9560075" cy="5018313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1702,8 +1709,8 @@
   </sheetPr>
   <dimension ref="A1:IT115"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="BP87" sqref="BP87"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1715,81 +1722,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="33" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="33" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="34" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="33" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="34" t="s">
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="33" t="s">
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="38" t="s">
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
       <c r="BH1" s="8"/>
@@ -1989,67 +1996,67 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="33" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="33" t="s">
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
       <c r="BF2" s="8"/>
       <c r="BG2" s="8"/>
       <c r="BH2" s="8"/>
@@ -2505,71 +2512,71 @@
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="35" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="37" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="35" t="s">
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
       <c r="BH4" s="8"/>
@@ -2769,63 +2776,63 @@
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
       <c r="BH5" s="8"/>
@@ -10524,144 +10531,144 @@
       <c r="BE45" s="24"/>
     </row>
     <row r="46" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="33" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="34" t="s">
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="33" t="s">
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="34" t="s">
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="34"/>
-      <c r="AL46" s="34"/>
-      <c r="AM46" s="33" t="s">
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AM46" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="AN46" s="33"/>
-      <c r="AO46" s="33"/>
-      <c r="AP46" s="34" t="s">
+      <c r="AN46" s="36"/>
+      <c r="AO46" s="36"/>
+      <c r="AP46" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AQ46" s="34"/>
-      <c r="AR46" s="34"/>
-      <c r="AS46" s="34"/>
-      <c r="AT46" s="34"/>
-      <c r="AU46" s="34"/>
-      <c r="AV46" s="34"/>
-      <c r="AW46" s="33" t="s">
+      <c r="AQ46" s="37"/>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37"/>
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="37"/>
+      <c r="AW46" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AX46" s="33"/>
-      <c r="AY46" s="33"/>
-      <c r="AZ46" s="38" t="s">
+      <c r="AX46" s="36"/>
+      <c r="AY46" s="36"/>
+      <c r="AZ46" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="BA46" s="38"/>
-      <c r="BB46" s="38"/>
-      <c r="BC46" s="38"/>
-      <c r="BD46" s="38"/>
-      <c r="BE46" s="38"/>
+      <c r="BA46" s="41"/>
+      <c r="BB46" s="41"/>
+      <c r="BC46" s="41"/>
+      <c r="BD46" s="41"/>
+      <c r="BE46" s="41"/>
     </row>
     <row r="47" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="34"/>
-      <c r="AL47" s="34"/>
-      <c r="AM47" s="33" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="36"/>
+      <c r="AB47" s="36"/>
+      <c r="AC47" s="36"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
+      <c r="AK47" s="37"/>
+      <c r="AL47" s="37"/>
+      <c r="AM47" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AN47" s="33"/>
-      <c r="AO47" s="33"/>
-      <c r="AP47" s="34"/>
-      <c r="AQ47" s="34"/>
-      <c r="AR47" s="34"/>
-      <c r="AS47" s="34"/>
-      <c r="AT47" s="34"/>
-      <c r="AU47" s="34"/>
-      <c r="AV47" s="34"/>
-      <c r="AW47" s="33" t="s">
+      <c r="AN47" s="36"/>
+      <c r="AO47" s="36"/>
+      <c r="AP47" s="37"/>
+      <c r="AQ47" s="37"/>
+      <c r="AR47" s="37"/>
+      <c r="AS47" s="37"/>
+      <c r="AT47" s="37"/>
+      <c r="AU47" s="37"/>
+      <c r="AV47" s="37"/>
+      <c r="AW47" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AX47" s="33"/>
-      <c r="AY47" s="33"/>
-      <c r="AZ47" s="38"/>
-      <c r="BA47" s="38"/>
-      <c r="BB47" s="38"/>
-      <c r="BC47" s="38"/>
-      <c r="BD47" s="38"/>
-      <c r="BE47" s="38"/>
+      <c r="AX47" s="36"/>
+      <c r="AY47" s="36"/>
+      <c r="AZ47" s="41"/>
+      <c r="BA47" s="41"/>
+      <c r="BB47" s="41"/>
+      <c r="BC47" s="41"/>
+      <c r="BD47" s="41"/>
+      <c r="BE47" s="41"/>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
@@ -10723,130 +10730,130 @@
       <c r="BE48" s="5"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="35" t="s">
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="39" t="s">
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="35" t="s">
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35"/>
-      <c r="AF49" s="35"/>
-      <c r="AG49" s="35"/>
-      <c r="AH49" s="35"/>
-      <c r="AI49" s="35"/>
-      <c r="AJ49" s="35"/>
-      <c r="AK49" s="35"/>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="35"/>
-      <c r="AN49" s="35"/>
-      <c r="AO49" s="35"/>
-      <c r="AP49" s="35"/>
-      <c r="AQ49" s="35"/>
-      <c r="AR49" s="35"/>
-      <c r="AS49" s="35"/>
-      <c r="AT49" s="35"/>
-      <c r="AU49" s="35"/>
-      <c r="AV49" s="35"/>
-      <c r="AW49" s="35"/>
-      <c r="AX49" s="35"/>
-      <c r="AY49" s="35"/>
-      <c r="AZ49" s="35"/>
-      <c r="BA49" s="35"/>
-      <c r="BB49" s="35"/>
-      <c r="BC49" s="35"/>
-      <c r="BD49" s="35"/>
-      <c r="BE49" s="35"/>
+      <c r="AD49" s="38"/>
+      <c r="AE49" s="38"/>
+      <c r="AF49" s="38"/>
+      <c r="AG49" s="38"/>
+      <c r="AH49" s="38"/>
+      <c r="AI49" s="38"/>
+      <c r="AJ49" s="38"/>
+      <c r="AK49" s="38"/>
+      <c r="AL49" s="38"/>
+      <c r="AM49" s="38"/>
+      <c r="AN49" s="38"/>
+      <c r="AO49" s="38"/>
+      <c r="AP49" s="38"/>
+      <c r="AQ49" s="38"/>
+      <c r="AR49" s="38"/>
+      <c r="AS49" s="38"/>
+      <c r="AT49" s="38"/>
+      <c r="AU49" s="38"/>
+      <c r="AV49" s="38"/>
+      <c r="AW49" s="38"/>
+      <c r="AX49" s="38"/>
+      <c r="AY49" s="38"/>
+      <c r="AZ49" s="38"/>
+      <c r="BA49" s="38"/>
+      <c r="BB49" s="38"/>
+      <c r="BC49" s="38"/>
+      <c r="BD49" s="38"/>
+      <c r="BE49" s="38"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="35"/>
-      <c r="AN50" s="35"/>
-      <c r="AO50" s="35"/>
-      <c r="AP50" s="35"/>
-      <c r="AQ50" s="35"/>
-      <c r="AR50" s="35"/>
-      <c r="AS50" s="35"/>
-      <c r="AT50" s="35"/>
-      <c r="AU50" s="35"/>
-      <c r="AV50" s="35"/>
-      <c r="AW50" s="35"/>
-      <c r="AX50" s="35"/>
-      <c r="AY50" s="35"/>
-      <c r="AZ50" s="35"/>
-      <c r="BA50" s="35"/>
-      <c r="BB50" s="35"/>
-      <c r="BC50" s="35"/>
-      <c r="BD50" s="35"/>
-      <c r="BE50" s="35"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="42"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="38"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="38"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="38"/>
+      <c r="AP50" s="38"/>
+      <c r="AQ50" s="38"/>
+      <c r="AR50" s="38"/>
+      <c r="AS50" s="38"/>
+      <c r="AT50" s="38"/>
+      <c r="AU50" s="38"/>
+      <c r="AV50" s="38"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="38"/>
+      <c r="AY50" s="38"/>
+      <c r="AZ50" s="38"/>
+      <c r="BA50" s="38"/>
+      <c r="BB50" s="38"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="38"/>
     </row>
     <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
@@ -12678,144 +12685,144 @@
       <c r="BE81" s="20"/>
     </row>
     <row r="82" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="33" t="s">
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="34" t="s">
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="R82" s="34"/>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
-      <c r="U82" s="34"/>
-      <c r="V82" s="34"/>
-      <c r="W82" s="34"/>
-      <c r="X82" s="34"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="33" t="s">
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="37"/>
+      <c r="Z82" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AA82" s="33"/>
-      <c r="AB82" s="33"/>
-      <c r="AC82" s="33"/>
-      <c r="AD82" s="34" t="s">
+      <c r="AA82" s="36"/>
+      <c r="AB82" s="36"/>
+      <c r="AC82" s="36"/>
+      <c r="AD82" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AE82" s="34"/>
-      <c r="AF82" s="34"/>
-      <c r="AG82" s="34"/>
-      <c r="AH82" s="34"/>
-      <c r="AI82" s="34"/>
-      <c r="AJ82" s="34"/>
-      <c r="AK82" s="34"/>
-      <c r="AL82" s="34"/>
-      <c r="AM82" s="33" t="s">
+      <c r="AE82" s="37"/>
+      <c r="AF82" s="37"/>
+      <c r="AG82" s="37"/>
+      <c r="AH82" s="37"/>
+      <c r="AI82" s="37"/>
+      <c r="AJ82" s="37"/>
+      <c r="AK82" s="37"/>
+      <c r="AL82" s="37"/>
+      <c r="AM82" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="AN82" s="33"/>
-      <c r="AO82" s="33"/>
-      <c r="AP82" s="34" t="s">
+      <c r="AN82" s="36"/>
+      <c r="AO82" s="36"/>
+      <c r="AP82" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AQ82" s="34"/>
-      <c r="AR82" s="34"/>
-      <c r="AS82" s="34"/>
-      <c r="AT82" s="34"/>
-      <c r="AU82" s="34"/>
-      <c r="AV82" s="34"/>
-      <c r="AW82" s="33" t="s">
+      <c r="AQ82" s="37"/>
+      <c r="AR82" s="37"/>
+      <c r="AS82" s="37"/>
+      <c r="AT82" s="37"/>
+      <c r="AU82" s="37"/>
+      <c r="AV82" s="37"/>
+      <c r="AW82" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AX82" s="33"/>
-      <c r="AY82" s="33"/>
-      <c r="AZ82" s="38" t="s">
+      <c r="AX82" s="36"/>
+      <c r="AY82" s="36"/>
+      <c r="AZ82" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="BA82" s="38"/>
-      <c r="BB82" s="38"/>
-      <c r="BC82" s="38"/>
-      <c r="BD82" s="38"/>
-      <c r="BE82" s="38"/>
+      <c r="BA82" s="41"/>
+      <c r="BB82" s="41"/>
+      <c r="BC82" s="41"/>
+      <c r="BD82" s="41"/>
+      <c r="BE82" s="41"/>
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="34"/>
-      <c r="W83" s="34"/>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
-      <c r="AB83" s="33"/>
-      <c r="AC83" s="33"/>
-      <c r="AD83" s="34"/>
-      <c r="AE83" s="34"/>
-      <c r="AF83" s="34"/>
-      <c r="AG83" s="34"/>
-      <c r="AH83" s="34"/>
-      <c r="AI83" s="34"/>
-      <c r="AJ83" s="34"/>
-      <c r="AK83" s="34"/>
-      <c r="AL83" s="34"/>
-      <c r="AM83" s="33" t="s">
+      <c r="A83" s="46"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
+      <c r="Z83" s="36"/>
+      <c r="AA83" s="36"/>
+      <c r="AB83" s="36"/>
+      <c r="AC83" s="36"/>
+      <c r="AD83" s="37"/>
+      <c r="AE83" s="37"/>
+      <c r="AF83" s="37"/>
+      <c r="AG83" s="37"/>
+      <c r="AH83" s="37"/>
+      <c r="AI83" s="37"/>
+      <c r="AJ83" s="37"/>
+      <c r="AK83" s="37"/>
+      <c r="AL83" s="37"/>
+      <c r="AM83" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AN83" s="33"/>
-      <c r="AO83" s="33"/>
-      <c r="AP83" s="34"/>
-      <c r="AQ83" s="34"/>
-      <c r="AR83" s="34"/>
-      <c r="AS83" s="34"/>
-      <c r="AT83" s="34"/>
-      <c r="AU83" s="34"/>
-      <c r="AV83" s="34"/>
-      <c r="AW83" s="33" t="s">
+      <c r="AN83" s="36"/>
+      <c r="AO83" s="36"/>
+      <c r="AP83" s="37"/>
+      <c r="AQ83" s="37"/>
+      <c r="AR83" s="37"/>
+      <c r="AS83" s="37"/>
+      <c r="AT83" s="37"/>
+      <c r="AU83" s="37"/>
+      <c r="AV83" s="37"/>
+      <c r="AW83" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AX83" s="33"/>
-      <c r="AY83" s="33"/>
-      <c r="AZ83" s="38"/>
-      <c r="BA83" s="38"/>
-      <c r="BB83" s="38"/>
-      <c r="BC83" s="38"/>
-      <c r="BD83" s="38"/>
-      <c r="BE83" s="38"/>
+      <c r="AX83" s="36"/>
+      <c r="AY83" s="36"/>
+      <c r="AZ83" s="41"/>
+      <c r="BA83" s="41"/>
+      <c r="BB83" s="41"/>
+      <c r="BC83" s="41"/>
+      <c r="BD83" s="41"/>
+      <c r="BE83" s="41"/>
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
@@ -12877,130 +12884,130 @@
       <c r="BE84" s="5"/>
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="35" t="s">
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="35"/>
-      <c r="V85" s="35"/>
-      <c r="W85" s="35"/>
-      <c r="X85" s="39" t="s">
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y85" s="39"/>
-      <c r="Z85" s="39"/>
-      <c r="AA85" s="39"/>
-      <c r="AB85" s="39"/>
-      <c r="AC85" s="35" t="s">
+      <c r="Y85" s="42"/>
+      <c r="Z85" s="42"/>
+      <c r="AA85" s="42"/>
+      <c r="AB85" s="42"/>
+      <c r="AC85" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AD85" s="35"/>
-      <c r="AE85" s="35"/>
-      <c r="AF85" s="35"/>
-      <c r="AG85" s="35"/>
-      <c r="AH85" s="35"/>
-      <c r="AI85" s="35"/>
-      <c r="AJ85" s="35"/>
-      <c r="AK85" s="35"/>
-      <c r="AL85" s="35"/>
-      <c r="AM85" s="35"/>
-      <c r="AN85" s="35"/>
-      <c r="AO85" s="35"/>
-      <c r="AP85" s="35"/>
-      <c r="AQ85" s="35"/>
-      <c r="AR85" s="35"/>
-      <c r="AS85" s="35"/>
-      <c r="AT85" s="35"/>
-      <c r="AU85" s="35"/>
-      <c r="AV85" s="35"/>
-      <c r="AW85" s="35"/>
-      <c r="AX85" s="35"/>
-      <c r="AY85" s="35"/>
-      <c r="AZ85" s="35"/>
-      <c r="BA85" s="35"/>
-      <c r="BB85" s="35"/>
-      <c r="BC85" s="35"/>
-      <c r="BD85" s="35"/>
-      <c r="BE85" s="35"/>
+      <c r="AD85" s="38"/>
+      <c r="AE85" s="38"/>
+      <c r="AF85" s="38"/>
+      <c r="AG85" s="38"/>
+      <c r="AH85" s="38"/>
+      <c r="AI85" s="38"/>
+      <c r="AJ85" s="38"/>
+      <c r="AK85" s="38"/>
+      <c r="AL85" s="38"/>
+      <c r="AM85" s="38"/>
+      <c r="AN85" s="38"/>
+      <c r="AO85" s="38"/>
+      <c r="AP85" s="38"/>
+      <c r="AQ85" s="38"/>
+      <c r="AR85" s="38"/>
+      <c r="AS85" s="38"/>
+      <c r="AT85" s="38"/>
+      <c r="AU85" s="38"/>
+      <c r="AV85" s="38"/>
+      <c r="AW85" s="38"/>
+      <c r="AX85" s="38"/>
+      <c r="AY85" s="38"/>
+      <c r="AZ85" s="38"/>
+      <c r="BA85" s="38"/>
+      <c r="BB85" s="38"/>
+      <c r="BC85" s="38"/>
+      <c r="BD85" s="38"/>
+      <c r="BE85" s="38"/>
     </row>
     <row r="86" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="39"/>
-      <c r="AA86" s="39"/>
-      <c r="AB86" s="39"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="35"/>
-      <c r="AI86" s="35"/>
-      <c r="AJ86" s="35"/>
-      <c r="AK86" s="35"/>
-      <c r="AL86" s="35"/>
-      <c r="AM86" s="35"/>
-      <c r="AN86" s="35"/>
-      <c r="AO86" s="35"/>
-      <c r="AP86" s="35"/>
-      <c r="AQ86" s="35"/>
-      <c r="AR86" s="35"/>
-      <c r="AS86" s="35"/>
-      <c r="AT86" s="35"/>
-      <c r="AU86" s="35"/>
-      <c r="AV86" s="35"/>
-      <c r="AW86" s="35"/>
-      <c r="AX86" s="35"/>
-      <c r="AY86" s="35"/>
-      <c r="AZ86" s="35"/>
-      <c r="BA86" s="35"/>
-      <c r="BB86" s="35"/>
-      <c r="BC86" s="35"/>
-      <c r="BD86" s="35"/>
-      <c r="BE86" s="35"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="42"/>
+      <c r="Y86" s="42"/>
+      <c r="Z86" s="42"/>
+      <c r="AA86" s="42"/>
+      <c r="AB86" s="42"/>
+      <c r="AC86" s="38"/>
+      <c r="AD86" s="38"/>
+      <c r="AE86" s="38"/>
+      <c r="AF86" s="38"/>
+      <c r="AG86" s="38"/>
+      <c r="AH86" s="38"/>
+      <c r="AI86" s="38"/>
+      <c r="AJ86" s="38"/>
+      <c r="AK86" s="38"/>
+      <c r="AL86" s="38"/>
+      <c r="AM86" s="38"/>
+      <c r="AN86" s="38"/>
+      <c r="AO86" s="38"/>
+      <c r="AP86" s="38"/>
+      <c r="AQ86" s="38"/>
+      <c r="AR86" s="38"/>
+      <c r="AS86" s="38"/>
+      <c r="AT86" s="38"/>
+      <c r="AU86" s="38"/>
+      <c r="AV86" s="38"/>
+      <c r="AW86" s="38"/>
+      <c r="AX86" s="38"/>
+      <c r="AY86" s="38"/>
+      <c r="AZ86" s="38"/>
+      <c r="BA86" s="38"/>
+      <c r="BB86" s="38"/>
+      <c r="BC86" s="38"/>
+      <c r="BD86" s="38"/>
+      <c r="BE86" s="38"/>
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
@@ -14796,7 +14803,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:HY41"/>
+  <dimension ref="A1:HY42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:J2"/>
@@ -14810,79 +14817,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="33" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="33" t="s">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34" t="s">
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="33" t="s">
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="38" t="s">
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
@@ -15063,65 +15070,65 @@
       <c r="HY1" s="3"/>
     </row>
     <row r="2" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="33" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="33" t="s">
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
@@ -15537,69 +15544,69 @@
       <c r="HY3" s="3"/>
     </row>
     <row r="4" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="67" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="70" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="67" t="s">
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="67"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="79"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="79"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="79"/>
+      <c r="AO4" s="79"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="79"/>
+      <c r="AS4" s="79"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="79"/>
+      <c r="AV4" s="79"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="79"/>
+      <c r="AY4" s="79"/>
+      <c r="AZ4" s="79"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="79"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -15780,61 +15787,61 @@
       <c r="HY4" s="3"/>
     </row>
     <row r="5" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AP5" s="73"/>
-      <c r="AQ5" s="73"/>
-      <c r="AR5" s="73"/>
-      <c r="AS5" s="73"/>
-      <c r="AT5" s="73"/>
-      <c r="AU5" s="73"/>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="73"/>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="73"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="85"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="85"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="85"/>
+      <c r="BC5" s="85"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -16235,71 +16242,71 @@
       <c r="HR6" s="3"/>
     </row>
     <row r="7" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37" t="s">
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37" t="s">
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="37"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="CP7" s="3"/>
@@ -16429,61 +16436,61 @@
       <c r="HJ7" s="3"/>
     </row>
     <row r="8" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="40"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="CP8" s="3"/>
@@ -16613,71 +16620,71 @@
       <c r="HJ8" s="3"/>
     </row>
     <row r="9" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59" t="s">
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="58" t="s">
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="74" t="s">
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="74"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="74"/>
-      <c r="BC9" s="74"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="65"/>
+      <c r="AZ9" s="65"/>
+      <c r="BA9" s="65"/>
+      <c r="BB9" s="65"/>
+      <c r="BC9" s="65"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="CP9" s="3"/>
@@ -16807,69 +16814,69 @@
       <c r="HJ9" s="3"/>
     </row>
     <row r="10" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="52" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59" t="s">
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="58" t="s">
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="CP10" s="3"/>
@@ -16999,69 +17006,69 @@
       <c r="HJ10" s="3"/>
     </row>
     <row r="11" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="52" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59" t="s">
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="58" t="s">
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="74"/>
-      <c r="AW11" s="74"/>
-      <c r="AX11" s="74"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="74"/>
-      <c r="BB11" s="74"/>
-      <c r="BC11" s="74"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="CP11" s="3"/>
@@ -17191,69 +17198,69 @@
       <c r="HJ11" s="3"/>
     </row>
     <row r="12" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="52" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59" t="s">
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="58" t="s">
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="74"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="74"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="74"/>
-      <c r="AN12" s="74"/>
-      <c r="AO12" s="74"/>
-      <c r="AP12" s="74"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
-      <c r="AS12" s="74"/>
-      <c r="AT12" s="74"/>
-      <c r="AU12" s="74"/>
-      <c r="AV12" s="74"/>
-      <c r="AW12" s="74"/>
-      <c r="AX12" s="74"/>
-      <c r="AY12" s="74"/>
-      <c r="AZ12" s="74"/>
-      <c r="BA12" s="74"/>
-      <c r="BB12" s="74"/>
-      <c r="BC12" s="74"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="CP12" s="3"/>
@@ -17383,69 +17390,69 @@
       <c r="HJ12" s="3"/>
     </row>
     <row r="13" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="52" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59" t="s">
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="58" t="s">
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="74"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="74"/>
-      <c r="AL13" s="74"/>
-      <c r="AM13" s="74"/>
-      <c r="AN13" s="74"/>
-      <c r="AO13" s="74"/>
-      <c r="AP13" s="74"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="74"/>
-      <c r="AS13" s="74"/>
-      <c r="AT13" s="74"/>
-      <c r="AU13" s="74"/>
-      <c r="AV13" s="74"/>
-      <c r="AW13" s="74"/>
-      <c r="AX13" s="74"/>
-      <c r="AY13" s="74"/>
-      <c r="AZ13" s="74"/>
-      <c r="BA13" s="74"/>
-      <c r="BB13" s="74"/>
-      <c r="BC13" s="74"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="65"/>
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="65"/>
+      <c r="BC13" s="65"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="CP13" s="3"/>
@@ -17575,69 +17582,69 @@
       <c r="HJ13" s="3"/>
     </row>
     <row r="14" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="59" t="s">
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="58" t="s">
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="60"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="60"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="73"/>
+      <c r="AS14" s="73"/>
+      <c r="AT14" s="73"/>
+      <c r="AU14" s="73"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="73"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="73"/>
+      <c r="BA14" s="73"/>
+      <c r="BB14" s="73"/>
+      <c r="BC14" s="73"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="CP14" s="3"/>
@@ -17767,69 +17774,69 @@
       <c r="HJ14" s="3"/>
     </row>
     <row r="15" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="59" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="58" t="s">
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="60"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="60"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="73"/>
+      <c r="AS15" s="73"/>
+      <c r="AT15" s="73"/>
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="73"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="73"/>
+      <c r="AY15" s="73"/>
+      <c r="AZ15" s="73"/>
+      <c r="BA15" s="73"/>
+      <c r="BB15" s="73"/>
+      <c r="BC15" s="73"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="CP15" s="3"/>
@@ -17959,69 +17966,69 @@
       <c r="HJ15" s="3"/>
     </row>
     <row r="16" spans="1:233" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="59" t="s">
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="58" t="s">
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="60"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="60"/>
-      <c r="AP16" s="60"/>
-      <c r="AQ16" s="60"/>
-      <c r="AR16" s="60"/>
-      <c r="AS16" s="60"/>
-      <c r="AT16" s="60"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="60"/>
-      <c r="AW16" s="60"/>
-      <c r="AX16" s="60"/>
-      <c r="AY16" s="60"/>
-      <c r="AZ16" s="60"/>
-      <c r="BA16" s="60"/>
-      <c r="BB16" s="60"/>
-      <c r="BC16" s="60"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
       <c r="CP16" s="3"/>
@@ -18151,69 +18158,69 @@
       <c r="HJ16" s="3"/>
     </row>
     <row r="17" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="59" t="s">
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="58" t="s">
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="77"/>
-      <c r="AU17" s="77"/>
-      <c r="AV17" s="77"/>
-      <c r="AW17" s="77"/>
-      <c r="AX17" s="77"/>
-      <c r="AY17" s="77"/>
-      <c r="AZ17" s="77"/>
-      <c r="BA17" s="77"/>
-      <c r="BB17" s="77"/>
-      <c r="BC17" s="78"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="88"/>
+      <c r="AJ17" s="88"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="88"/>
+      <c r="AM17" s="88"/>
+      <c r="AN17" s="88"/>
+      <c r="AO17" s="88"/>
+      <c r="AP17" s="88"/>
+      <c r="AQ17" s="88"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="88"/>
+      <c r="AT17" s="88"/>
+      <c r="AU17" s="88"/>
+      <c r="AV17" s="88"/>
+      <c r="AW17" s="88"/>
+      <c r="AX17" s="88"/>
+      <c r="AY17" s="88"/>
+      <c r="AZ17" s="88"/>
+      <c r="BA17" s="88"/>
+      <c r="BB17" s="88"/>
+      <c r="BC17" s="89"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="CP17" s="3"/>
@@ -18342,246 +18349,254 @@
       <c r="HI17" s="3"/>
       <c r="HJ17" s="3"/>
     </row>
-    <row r="18" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="CP18" s="3"/>
-      <c r="CQ18" s="3"/>
-      <c r="CR18" s="3"/>
-      <c r="CS18" s="3"/>
-      <c r="CT18" s="3"/>
-      <c r="CU18" s="3"/>
-      <c r="CV18" s="3"/>
-      <c r="CW18" s="3"/>
-      <c r="CX18" s="3"/>
-      <c r="CY18" s="3"/>
-      <c r="CZ18" s="3"/>
-      <c r="DA18" s="3"/>
-      <c r="DB18" s="3"/>
-      <c r="DC18" s="3"/>
-      <c r="DD18" s="3"/>
-      <c r="DE18" s="3"/>
-      <c r="DF18" s="3"/>
-      <c r="DG18" s="3"/>
-      <c r="DH18" s="3"/>
-      <c r="DI18" s="3"/>
-      <c r="DJ18" s="3"/>
-      <c r="DK18" s="3"/>
-      <c r="DL18" s="3"/>
-      <c r="DM18" s="3"/>
-      <c r="DN18" s="3"/>
-      <c r="DO18" s="3"/>
-      <c r="DP18" s="3"/>
-      <c r="DQ18" s="3"/>
-      <c r="DR18" s="3"/>
-      <c r="DS18" s="3"/>
-      <c r="DT18" s="3"/>
-      <c r="DU18" s="3"/>
-      <c r="DV18" s="3"/>
-      <c r="DW18" s="3"/>
-      <c r="DX18" s="3"/>
-      <c r="DY18" s="3"/>
-      <c r="DZ18" s="3"/>
-      <c r="EA18" s="3"/>
-      <c r="EB18" s="3"/>
-      <c r="EC18" s="3"/>
-      <c r="ED18" s="3"/>
-      <c r="EE18" s="3"/>
-      <c r="EF18" s="3"/>
-      <c r="EG18" s="3"/>
-      <c r="EH18" s="3"/>
-      <c r="EI18" s="3"/>
-      <c r="EJ18" s="3"/>
-      <c r="EK18" s="3"/>
-      <c r="EL18" s="3"/>
-      <c r="EM18" s="3"/>
-      <c r="EN18" s="3"/>
-      <c r="EO18" s="3"/>
-      <c r="EP18" s="3"/>
-      <c r="EQ18" s="3"/>
-      <c r="ER18" s="3"/>
-      <c r="ES18" s="3"/>
-      <c r="ET18" s="3"/>
-      <c r="EU18" s="3"/>
-      <c r="EV18" s="3"/>
-      <c r="EW18" s="3"/>
-      <c r="EX18" s="3"/>
-      <c r="EY18" s="3"/>
-      <c r="EZ18" s="3"/>
-      <c r="FA18" s="3"/>
-      <c r="FB18" s="3"/>
-      <c r="FC18" s="3"/>
-      <c r="FD18" s="3"/>
-      <c r="FE18" s="3"/>
-      <c r="FF18" s="3"/>
-      <c r="FG18" s="3"/>
-      <c r="FH18" s="3"/>
-      <c r="FI18" s="3"/>
-      <c r="FJ18" s="3"/>
-      <c r="FK18" s="3"/>
-      <c r="FL18" s="3"/>
-      <c r="FM18" s="3"/>
-      <c r="FN18" s="3"/>
-      <c r="FO18" s="3"/>
-      <c r="FP18" s="3"/>
-      <c r="FQ18" s="3"/>
-      <c r="FR18" s="3"/>
-      <c r="FS18" s="3"/>
-      <c r="FT18" s="3"/>
-      <c r="FU18" s="3"/>
-      <c r="FV18" s="3"/>
-      <c r="FW18" s="3"/>
-      <c r="FX18" s="3"/>
-      <c r="FY18" s="3"/>
-      <c r="FZ18" s="3"/>
-      <c r="GA18" s="3"/>
-      <c r="GB18" s="3"/>
-      <c r="GC18" s="3"/>
-      <c r="GD18" s="3"/>
-      <c r="GE18" s="3"/>
-      <c r="GF18" s="3"/>
-      <c r="GG18" s="3"/>
-      <c r="GH18" s="3"/>
-      <c r="GI18" s="3"/>
-      <c r="GJ18" s="3"/>
-      <c r="GK18" s="3"/>
-      <c r="GL18" s="3"/>
-      <c r="GM18" s="3"/>
-      <c r="GN18" s="3"/>
-      <c r="GO18" s="3"/>
-      <c r="GP18" s="3"/>
-      <c r="GQ18" s="3"/>
-      <c r="GR18" s="3"/>
-      <c r="GS18" s="3"/>
-      <c r="GT18" s="3"/>
-      <c r="GU18" s="3"/>
-      <c r="GV18" s="3"/>
-      <c r="GW18" s="3"/>
-      <c r="GX18" s="3"/>
-      <c r="GY18" s="3"/>
-      <c r="GZ18" s="3"/>
-      <c r="HA18" s="3"/>
-      <c r="HB18" s="3"/>
-      <c r="HC18" s="3"/>
-      <c r="HD18" s="3"/>
-      <c r="HE18" s="3"/>
-      <c r="HF18" s="3"/>
-      <c r="HG18" s="3"/>
-      <c r="HH18" s="3"/>
-      <c r="HI18" s="3"/>
-      <c r="HJ18" s="3"/>
+    <row r="18" spans="1:218" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="55"/>
+      <c r="AW18" s="55"/>
+      <c r="AX18" s="55"/>
+      <c r="AY18" s="55"/>
+      <c r="AZ18" s="55"/>
+      <c r="BA18" s="55"/>
+      <c r="BB18" s="55"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="34"/>
+      <c r="CP18" s="34"/>
+      <c r="CQ18" s="34"/>
+      <c r="CR18" s="34"/>
+      <c r="CS18" s="34"/>
+      <c r="CT18" s="34"/>
+      <c r="CU18" s="34"/>
+      <c r="CV18" s="34"/>
+      <c r="CW18" s="34"/>
+      <c r="CX18" s="34"/>
+      <c r="CY18" s="34"/>
+      <c r="CZ18" s="34"/>
+      <c r="DA18" s="34"/>
+      <c r="DB18" s="34"/>
+      <c r="DC18" s="34"/>
+      <c r="DD18" s="34"/>
+      <c r="DE18" s="34"/>
+      <c r="DF18" s="34"/>
+      <c r="DG18" s="34"/>
+      <c r="DH18" s="34"/>
+      <c r="DI18" s="34"/>
+      <c r="DJ18" s="34"/>
+      <c r="DK18" s="34"/>
+      <c r="DL18" s="34"/>
+      <c r="DM18" s="34"/>
+      <c r="DN18" s="34"/>
+      <c r="DO18" s="34"/>
+      <c r="DP18" s="34"/>
+      <c r="DQ18" s="34"/>
+      <c r="DR18" s="34"/>
+      <c r="DS18" s="34"/>
+      <c r="DT18" s="34"/>
+      <c r="DU18" s="34"/>
+      <c r="DV18" s="34"/>
+      <c r="DW18" s="34"/>
+      <c r="DX18" s="34"/>
+      <c r="DY18" s="34"/>
+      <c r="DZ18" s="34"/>
+      <c r="EA18" s="34"/>
+      <c r="EB18" s="34"/>
+      <c r="EC18" s="34"/>
+      <c r="ED18" s="34"/>
+      <c r="EE18" s="34"/>
+      <c r="EF18" s="34"/>
+      <c r="EG18" s="34"/>
+      <c r="EH18" s="34"/>
+      <c r="EI18" s="34"/>
+      <c r="EJ18" s="34"/>
+      <c r="EK18" s="34"/>
+      <c r="EL18" s="34"/>
+      <c r="EM18" s="34"/>
+      <c r="EN18" s="34"/>
+      <c r="EO18" s="34"/>
+      <c r="EP18" s="34"/>
+      <c r="EQ18" s="34"/>
+      <c r="ER18" s="34"/>
+      <c r="ES18" s="34"/>
+      <c r="ET18" s="34"/>
+      <c r="EU18" s="34"/>
+      <c r="EV18" s="34"/>
+      <c r="EW18" s="34"/>
+      <c r="EX18" s="34"/>
+      <c r="EY18" s="34"/>
+      <c r="EZ18" s="34"/>
+      <c r="FA18" s="34"/>
+      <c r="FB18" s="34"/>
+      <c r="FC18" s="34"/>
+      <c r="FD18" s="34"/>
+      <c r="FE18" s="34"/>
+      <c r="FF18" s="34"/>
+      <c r="FG18" s="34"/>
+      <c r="FH18" s="34"/>
+      <c r="FI18" s="34"/>
+      <c r="FJ18" s="34"/>
+      <c r="FK18" s="34"/>
+      <c r="FL18" s="34"/>
+      <c r="FM18" s="34"/>
+      <c r="FN18" s="34"/>
+      <c r="FO18" s="34"/>
+      <c r="FP18" s="34"/>
+      <c r="FQ18" s="34"/>
+      <c r="FR18" s="34"/>
+      <c r="FS18" s="34"/>
+      <c r="FT18" s="34"/>
+      <c r="FU18" s="34"/>
+      <c r="FV18" s="34"/>
+      <c r="FW18" s="34"/>
+      <c r="FX18" s="34"/>
+      <c r="FY18" s="34"/>
+      <c r="FZ18" s="34"/>
+      <c r="GA18" s="34"/>
+      <c r="GB18" s="34"/>
+      <c r="GC18" s="34"/>
+      <c r="GD18" s="34"/>
+      <c r="GE18" s="34"/>
+      <c r="GF18" s="34"/>
+      <c r="GG18" s="34"/>
+      <c r="GH18" s="34"/>
+      <c r="GI18" s="34"/>
+      <c r="GJ18" s="34"/>
+      <c r="GK18" s="34"/>
+      <c r="GL18" s="34"/>
+      <c r="GM18" s="34"/>
+      <c r="GN18" s="34"/>
+      <c r="GO18" s="34"/>
+      <c r="GP18" s="34"/>
+      <c r="GQ18" s="34"/>
+      <c r="GR18" s="34"/>
+      <c r="GS18" s="34"/>
+      <c r="GT18" s="34"/>
+      <c r="GU18" s="34"/>
+      <c r="GV18" s="34"/>
+      <c r="GW18" s="34"/>
+      <c r="GX18" s="34"/>
+      <c r="GY18" s="34"/>
+      <c r="GZ18" s="34"/>
+      <c r="HA18" s="34"/>
+      <c r="HB18" s="34"/>
+      <c r="HC18" s="34"/>
+      <c r="HD18" s="34"/>
+      <c r="HE18" s="34"/>
+      <c r="HF18" s="34"/>
+      <c r="HG18" s="34"/>
+      <c r="HH18" s="34"/>
+      <c r="HI18" s="34"/>
+      <c r="HJ18" s="34"/>
     </row>
     <row r="19" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="25"/>
-      <c r="AR19" s="25"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="25"/>
-      <c r="AZ19" s="25"/>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="25"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
       <c r="BD19" s="3"/>
       <c r="BE19" s="3"/>
       <c r="CP19" s="3"/>
@@ -18711,79 +18726,61 @@
       <c r="HJ19" s="3"/>
     </row>
     <row r="20" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="61"/>
-      <c r="AN20" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV20" s="61"/>
-      <c r="AW20" s="61"/>
-      <c r="AX20" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY20" s="63"/>
-      <c r="AZ20" s="63"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
-      <c r="BC20" s="63"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
       <c r="BD20" s="6"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="3"/>
@@ -18928,1285 +18925,1488 @@
       <c r="GV20" s="3"/>
     </row>
     <row r="21" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="47" t="s">
-        <v>4</v>
+      <c r="A21" s="86" t="s">
+        <v>8</v>
       </c>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
-      <c r="AS21" s="46"/>
-      <c r="AT21" s="46"/>
-      <c r="AU21" s="47" t="s">
-        <v>5</v>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="74" t="s">
+        <v>0</v>
       </c>
-      <c r="AV21" s="47"/>
-      <c r="AW21" s="47"/>
-      <c r="AX21" s="57"/>
-      <c r="AY21" s="57"/>
-      <c r="AZ21" s="57"/>
-      <c r="BA21" s="57"/>
-      <c r="BB21" s="57"/>
-      <c r="BC21" s="57"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO21" s="75"/>
+      <c r="AP21" s="75"/>
+      <c r="AQ21" s="75"/>
+      <c r="AR21" s="75"/>
+      <c r="AS21" s="75"/>
+      <c r="AT21" s="75"/>
+      <c r="AU21" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="76"/>
       <c r="BD21" s="7"/>
       <c r="BE21" s="7"/>
     </row>
     <row r="22" spans="1:218" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL22" s="58"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="57"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV22" s="58"/>
+      <c r="AW22" s="58"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="69"/>
+      <c r="AZ22" s="69"/>
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="69"/>
+      <c r="BC22" s="69"/>
       <c r="BD22" s="7"/>
       <c r="BE22" s="7"/>
     </row>
     <row r="23" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="33"/>
+      <c r="BE23" s="33"/>
+    </row>
+    <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="35" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="39" t="s">
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="35" t="s">
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="35"/>
-      <c r="AS23" s="35"/>
-      <c r="AT23" s="35"/>
-      <c r="AU23" s="35"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="35"/>
-      <c r="AX23" s="35"/>
-      <c r="AY23" s="35"/>
-      <c r="AZ23" s="35"/>
-      <c r="BA23" s="35"/>
-      <c r="BB23" s="35"/>
-      <c r="BC23" s="35"/>
-      <c r="BD23" s="35"/>
-      <c r="BE23" s="35"/>
-    </row>
-    <row r="24" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
-      <c r="AY24" s="35"/>
-      <c r="AZ24" s="35"/>
-      <c r="BA24" s="35"/>
-      <c r="BB24" s="35"/>
-      <c r="BC24" s="35"/>
-      <c r="BD24" s="35"/>
-      <c r="BE24" s="35"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="33"/>
+      <c r="AP24" s="33"/>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="33"/>
+      <c r="AS24" s="33"/>
+      <c r="AT24" s="33"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="33"/>
+      <c r="AX24" s="33"/>
+      <c r="AY24" s="33"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="33"/>
+      <c r="BB24" s="33"/>
+      <c r="BC24" s="33"/>
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="33"/>
     </row>
     <row r="25" spans="1:218" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="8"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33"/>
+      <c r="AM25" s="33"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="33"/>
+      <c r="AP25" s="33"/>
+      <c r="AQ25" s="33"/>
+      <c r="AR25" s="33"/>
+      <c r="AS25" s="33"/>
+      <c r="AT25" s="33"/>
+      <c r="AU25" s="33"/>
+      <c r="AV25" s="33"/>
+      <c r="AW25" s="33"/>
+      <c r="AX25" s="33"/>
+      <c r="AY25" s="33"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="33"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="33"/>
       <c r="BD25" s="7"/>
       <c r="BE25" s="7"/>
     </row>
     <row r="26" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+    </row>
+    <row r="27" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="37" t="s">
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="39" t="s">
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
-      <c r="AH26" s="39"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="39"/>
-      <c r="AQ26" s="39"/>
-      <c r="AR26" s="39"/>
-      <c r="AS26" s="39"/>
-      <c r="AT26" s="39"/>
-      <c r="AU26" s="39"/>
-      <c r="AV26" s="39"/>
-      <c r="AW26" s="39"/>
-      <c r="AX26" s="39"/>
-      <c r="AY26" s="39"/>
-      <c r="AZ26" s="39"/>
-      <c r="BA26" s="39"/>
-      <c r="BB26" s="39"/>
-      <c r="BC26" s="39"/>
-    </row>
-    <row r="27" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
-      <c r="BA27" s="39"/>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="42"/>
+      <c r="BA27" s="42"/>
+      <c r="BB27" s="42"/>
+      <c r="BC27" s="42"/>
     </row>
     <row r="28" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+    </row>
+    <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="51" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="52" t="s">
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="53" t="s">
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="53"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="54"/>
-      <c r="AM28" s="54"/>
-      <c r="AN28" s="54"/>
-      <c r="AO28" s="54"/>
-      <c r="AP28" s="54"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="54"/>
-      <c r="AS28" s="54"/>
-      <c r="AT28" s="54"/>
-      <c r="AU28" s="54"/>
-      <c r="AV28" s="54"/>
-      <c r="AW28" s="54"/>
-      <c r="AX28" s="54"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="54"/>
-      <c r="BA28" s="54"/>
-      <c r="BB28" s="54"/>
-      <c r="BC28" s="54"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="66"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="66"/>
+      <c r="AV29" s="66"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="66"/>
+      <c r="AZ29" s="66"/>
+      <c r="BA29" s="66"/>
+      <c r="BB29" s="66"/>
+      <c r="BC29" s="66"/>
     </row>
-    <row r="29" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
+    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="79" t="s">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="52" t="s">
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="53" t="s">
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="54"/>
-      <c r="AT29" s="54"/>
-      <c r="AU29" s="54"/>
-      <c r="AV29" s="54"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="54"/>
-      <c r="BA29" s="54"/>
-      <c r="BB29" s="54"/>
-      <c r="BC29" s="54"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="66"/>
+      <c r="AN30" s="66"/>
+      <c r="AO30" s="66"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="66"/>
+      <c r="AT30" s="66"/>
+      <c r="AU30" s="66"/>
+      <c r="AV30" s="66"/>
+      <c r="AW30" s="66"/>
+      <c r="AX30" s="66"/>
+      <c r="AY30" s="66"/>
+      <c r="AZ30" s="66"/>
+      <c r="BA30" s="66"/>
+      <c r="BB30" s="66"/>
+      <c r="BC30" s="66"/>
     </row>
-    <row r="30" spans="1:218" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
-      <c r="AT30" s="54"/>
-      <c r="AU30" s="54"/>
-      <c r="AV30" s="54"/>
-      <c r="AW30" s="54"/>
-      <c r="AX30" s="54"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="54"/>
-      <c r="BA30" s="54"/>
-      <c r="BB30" s="54"/>
-      <c r="BC30" s="54"/>
+    <row r="31" spans="1:218" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="55"/>
+      <c r="AV31" s="55"/>
+      <c r="AW31" s="55"/>
+      <c r="AX31" s="55"/>
+      <c r="AY31" s="55"/>
+      <c r="AZ31" s="55"/>
+      <c r="BA31" s="55"/>
+      <c r="BB31" s="55"/>
+      <c r="BC31" s="56"/>
+      <c r="BD31" s="34"/>
+      <c r="BE31" s="34"/>
+      <c r="CP31" s="34"/>
+      <c r="CQ31" s="34"/>
+      <c r="CR31" s="34"/>
+      <c r="CS31" s="34"/>
+      <c r="CT31" s="34"/>
+      <c r="CU31" s="34"/>
+      <c r="CV31" s="34"/>
+      <c r="CW31" s="34"/>
+      <c r="CX31" s="34"/>
+      <c r="CY31" s="34"/>
+      <c r="CZ31" s="34"/>
+      <c r="DA31" s="34"/>
+      <c r="DB31" s="34"/>
+      <c r="DC31" s="34"/>
+      <c r="DD31" s="34"/>
+      <c r="DE31" s="34"/>
+      <c r="DF31" s="34"/>
+      <c r="DG31" s="34"/>
+      <c r="DH31" s="34"/>
+      <c r="DI31" s="34"/>
+      <c r="DJ31" s="34"/>
+      <c r="DK31" s="34"/>
+      <c r="DL31" s="34"/>
+      <c r="DM31" s="34"/>
+      <c r="DN31" s="34"/>
+      <c r="DO31" s="34"/>
+      <c r="DP31" s="34"/>
+      <c r="DQ31" s="34"/>
+      <c r="DR31" s="34"/>
+      <c r="DS31" s="34"/>
+      <c r="DT31" s="34"/>
+      <c r="DU31" s="34"/>
+      <c r="DV31" s="34"/>
+      <c r="DW31" s="34"/>
+      <c r="DX31" s="34"/>
+      <c r="DY31" s="34"/>
+      <c r="DZ31" s="34"/>
+      <c r="EA31" s="34"/>
+      <c r="EB31" s="34"/>
+      <c r="EC31" s="34"/>
+      <c r="ED31" s="34"/>
+      <c r="EE31" s="34"/>
+      <c r="EF31" s="34"/>
+      <c r="EG31" s="34"/>
+      <c r="EH31" s="34"/>
+      <c r="EI31" s="34"/>
+      <c r="EJ31" s="34"/>
+      <c r="EK31" s="34"/>
+      <c r="EL31" s="34"/>
+      <c r="EM31" s="34"/>
+      <c r="EN31" s="34"/>
+      <c r="EO31" s="34"/>
+      <c r="EP31" s="34"/>
+      <c r="EQ31" s="34"/>
+      <c r="ER31" s="34"/>
+      <c r="ES31" s="34"/>
+      <c r="ET31" s="34"/>
+      <c r="EU31" s="34"/>
+      <c r="EV31" s="34"/>
+      <c r="EW31" s="34"/>
+      <c r="EX31" s="34"/>
+      <c r="EY31" s="34"/>
+      <c r="EZ31" s="34"/>
+      <c r="FA31" s="34"/>
+      <c r="FB31" s="34"/>
+      <c r="FC31" s="34"/>
+      <c r="FD31" s="34"/>
+      <c r="FE31" s="34"/>
+      <c r="FF31" s="34"/>
+      <c r="FG31" s="34"/>
+      <c r="FH31" s="34"/>
+      <c r="FI31" s="34"/>
+      <c r="FJ31" s="34"/>
+      <c r="FK31" s="34"/>
+      <c r="FL31" s="34"/>
+      <c r="FM31" s="34"/>
+      <c r="FN31" s="34"/>
+      <c r="FO31" s="34"/>
+      <c r="FP31" s="34"/>
+      <c r="FQ31" s="34"/>
+      <c r="FR31" s="34"/>
+      <c r="FS31" s="34"/>
+      <c r="FT31" s="34"/>
+      <c r="FU31" s="34"/>
+      <c r="FV31" s="34"/>
+      <c r="FW31" s="34"/>
+      <c r="FX31" s="34"/>
+      <c r="FY31" s="34"/>
+      <c r="FZ31" s="34"/>
+      <c r="GA31" s="34"/>
+      <c r="GB31" s="34"/>
+      <c r="GC31" s="34"/>
+      <c r="GD31" s="34"/>
+      <c r="GE31" s="34"/>
+      <c r="GF31" s="34"/>
+      <c r="GG31" s="34"/>
+      <c r="GH31" s="34"/>
+      <c r="GI31" s="34"/>
+      <c r="GJ31" s="34"/>
+      <c r="GK31" s="34"/>
+      <c r="GL31" s="34"/>
+      <c r="GM31" s="34"/>
+      <c r="GN31" s="34"/>
+      <c r="GO31" s="34"/>
+      <c r="GP31" s="34"/>
+      <c r="GQ31" s="34"/>
+      <c r="GR31" s="34"/>
+      <c r="GS31" s="34"/>
+      <c r="GT31" s="34"/>
+      <c r="GU31" s="34"/>
+      <c r="GV31" s="34"/>
+      <c r="GW31" s="34"/>
+      <c r="GX31" s="34"/>
+      <c r="GY31" s="34"/>
+      <c r="GZ31" s="34"/>
+      <c r="HA31" s="34"/>
+      <c r="HB31" s="34"/>
+      <c r="HC31" s="34"/>
+      <c r="HD31" s="34"/>
+      <c r="HE31" s="34"/>
+      <c r="HF31" s="34"/>
+      <c r="HG31" s="34"/>
+      <c r="HH31" s="34"/>
+      <c r="HI31" s="34"/>
+      <c r="HJ31" s="34"/>
     </row>
-    <row r="32" spans="1:218" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="64" t="s">
+    <row r="33" spans="1:57" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="47" t="s">
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="46" t="s">
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="47" t="s">
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="46" t="s">
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="47" t="s">
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="46" t="s">
+      <c r="AL33" s="58"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AO32" s="46"/>
-      <c r="AP32" s="46"/>
-      <c r="AQ32" s="46"/>
-      <c r="AR32" s="46"/>
-      <c r="AS32" s="46"/>
-      <c r="AT32" s="46"/>
-      <c r="AU32" s="47" t="s">
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AV32" s="47"/>
-      <c r="AW32" s="47"/>
-      <c r="AX32" s="38" t="s">
+      <c r="AV33" s="58"/>
+      <c r="AW33" s="58"/>
+      <c r="AX33" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AY32" s="38"/>
-      <c r="AZ32" s="38"/>
-      <c r="BA32" s="38"/>
-      <c r="BB32" s="38"/>
-      <c r="BC32" s="38"/>
+      <c r="AY33" s="41"/>
+      <c r="AZ33" s="41"/>
+      <c r="BA33" s="41"/>
+      <c r="BB33" s="41"/>
+      <c r="BC33" s="41"/>
     </row>
-    <row r="33" spans="1:57" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="47" t="s">
+    <row r="34" spans="1:57" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AL33" s="47"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="46"/>
-      <c r="AP33" s="46"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="AU33" s="47" t="s">
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AV33" s="47"/>
-      <c r="AW33" s="47"/>
-      <c r="AX33" s="57"/>
-      <c r="AY33" s="57"/>
-      <c r="AZ33" s="57"/>
-      <c r="BA33" s="57"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="57"/>
-    </row>
-    <row r="34" spans="1:57" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
+      <c r="AV34" s="58"/>
+      <c r="AW34" s="58"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="69"/>
+      <c r="AZ34" s="69"/>
+      <c r="BA34" s="69"/>
+      <c r="BB34" s="69"/>
+      <c r="BC34" s="69"/>
     </row>
     <row r="35" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="33"/>
+      <c r="BE35" s="33"/>
+    </row>
+    <row r="36" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="35" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="39" t="s">
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="35" t="s">
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="35"/>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="35"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AT35" s="35"/>
-      <c r="AU35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="35"/>
-      <c r="AX35" s="35"/>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="35"/>
-      <c r="BA35" s="35"/>
-      <c r="BB35" s="35"/>
-      <c r="BC35" s="35"/>
-      <c r="BD35" s="35"/>
-      <c r="BE35" s="35"/>
-    </row>
-    <row r="36" spans="1:57" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="35"/>
-      <c r="AE36" s="35"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="35"/>
-      <c r="AH36" s="35"/>
-      <c r="AI36" s="35"/>
-      <c r="AJ36" s="35"/>
-      <c r="AK36" s="35"/>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="35"/>
-      <c r="AN36" s="35"/>
-      <c r="AO36" s="35"/>
-      <c r="AP36" s="35"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="35"/>
-      <c r="AS36" s="35"/>
-      <c r="AT36" s="35"/>
-      <c r="AU36" s="35"/>
-      <c r="AV36" s="35"/>
-      <c r="AW36" s="35"/>
-      <c r="AX36" s="35"/>
-      <c r="AY36" s="35"/>
-      <c r="AZ36" s="35"/>
-      <c r="BA36" s="35"/>
-      <c r="BB36" s="35"/>
-      <c r="BC36" s="35"/>
-      <c r="BD36" s="35"/>
-      <c r="BE36" s="35"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="33"/>
     </row>
     <row r="37" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="8"/>
-      <c r="AK37" s="8"/>
-      <c r="AL37" s="8"/>
-      <c r="AM37" s="8"/>
-      <c r="AN37" s="8"/>
-      <c r="AO37" s="8"/>
-      <c r="AP37" s="8"/>
-      <c r="AQ37" s="8"/>
-      <c r="AR37" s="8"/>
-      <c r="AS37" s="8"/>
-      <c r="AT37" s="8"/>
-      <c r="AU37" s="8"/>
-      <c r="AV37" s="8"/>
-      <c r="AW37" s="8"/>
-      <c r="AX37" s="8"/>
-      <c r="AY37" s="8"/>
-      <c r="AZ37" s="8"/>
-      <c r="BA37" s="8"/>
-      <c r="BB37" s="8"/>
-      <c r="BC37" s="8"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="33"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="33"/>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="33"/>
+      <c r="AT37" s="33"/>
+      <c r="AU37" s="33"/>
+      <c r="AV37" s="33"/>
+      <c r="AW37" s="33"/>
+      <c r="AX37" s="33"/>
+      <c r="AY37" s="33"/>
+      <c r="AZ37" s="33"/>
+      <c r="BA37" s="33"/>
+      <c r="BB37" s="33"/>
+      <c r="BC37" s="33"/>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="8"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="8"/>
+      <c r="AZ38" s="8"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+      <c r="BC38" s="8"/>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39" t="s">
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="37" t="s">
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="39" t="s">
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="39"/>
-      <c r="AL38" s="39"/>
-      <c r="AM38" s="39"/>
-      <c r="AN38" s="39"/>
-      <c r="AO38" s="39"/>
-      <c r="AP38" s="39"/>
-      <c r="AQ38" s="39"/>
-      <c r="AR38" s="39"/>
-      <c r="AS38" s="39"/>
-      <c r="AT38" s="39"/>
-      <c r="AU38" s="39"/>
-      <c r="AV38" s="39"/>
-      <c r="AW38" s="39"/>
-      <c r="AX38" s="39"/>
-      <c r="AY38" s="39"/>
-      <c r="AZ38" s="39"/>
-      <c r="BA38" s="39"/>
-      <c r="BB38" s="39"/>
-      <c r="BC38" s="39"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="42"/>
+      <c r="AH39" s="42"/>
+      <c r="AI39" s="42"/>
+      <c r="AJ39" s="42"/>
+      <c r="AK39" s="42"/>
+      <c r="AL39" s="42"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="42"/>
+      <c r="AO39" s="42"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="42"/>
+      <c r="AS39" s="42"/>
+      <c r="AT39" s="42"/>
+      <c r="AU39" s="42"/>
+      <c r="AV39" s="42"/>
+      <c r="AW39" s="42"/>
+      <c r="AX39" s="42"/>
+      <c r="AY39" s="42"/>
+      <c r="AZ39" s="42"/>
+      <c r="BA39" s="42"/>
+      <c r="BB39" s="42"/>
+      <c r="BC39" s="42"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39"/>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39"/>
-      <c r="AP39" s="39"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39"/>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
-      <c r="AV39" s="39"/>
-      <c r="AW39" s="39"/>
-      <c r="AX39" s="39"/>
-      <c r="AY39" s="39"/>
-      <c r="AZ39" s="39"/>
-      <c r="BA39" s="39"/>
-      <c r="BB39" s="39"/>
-      <c r="BC39" s="39"/>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="40"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
+      <c r="AU40" s="42"/>
+      <c r="AV40" s="42"/>
+      <c r="AW40" s="42"/>
+      <c r="AX40" s="42"/>
+      <c r="AY40" s="42"/>
+      <c r="AZ40" s="42"/>
+      <c r="BA40" s="42"/>
+      <c r="BB40" s="42"/>
+      <c r="BC40" s="42"/>
     </row>
-    <row r="40" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
+    <row r="41" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51" t="s">
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="52" t="s">
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="53" t="s">
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="54" t="s">
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
-      <c r="AH40" s="54"/>
-      <c r="AI40" s="54"/>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="54"/>
-      <c r="AM40" s="54"/>
-      <c r="AN40" s="54"/>
-      <c r="AO40" s="54"/>
-      <c r="AP40" s="54"/>
-      <c r="AQ40" s="54"/>
-      <c r="AR40" s="54"/>
-      <c r="AS40" s="54"/>
-      <c r="AT40" s="54"/>
-      <c r="AU40" s="54"/>
-      <c r="AV40" s="54"/>
-      <c r="AW40" s="54"/>
-      <c r="AX40" s="54"/>
-      <c r="AY40" s="54"/>
-      <c r="AZ40" s="54"/>
-      <c r="BA40" s="54"/>
-      <c r="BB40" s="54"/>
-      <c r="BC40" s="54"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="66"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="66"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="66"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="66"/>
+      <c r="AW41" s="66"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="66"/>
+      <c r="AZ41" s="66"/>
+      <c r="BA41" s="66"/>
+      <c r="BB41" s="66"/>
+      <c r="BC41" s="66"/>
     </row>
-    <row r="41" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="54"/>
-      <c r="AG41" s="54"/>
-      <c r="AH41" s="54"/>
-      <c r="AI41" s="54"/>
-      <c r="AJ41" s="54"/>
-      <c r="AK41" s="54"/>
-      <c r="AL41" s="54"/>
-      <c r="AM41" s="54"/>
-      <c r="AN41" s="54"/>
-      <c r="AO41" s="54"/>
-      <c r="AP41" s="54"/>
-      <c r="AQ41" s="54"/>
-      <c r="AR41" s="54"/>
-      <c r="AS41" s="54"/>
-      <c r="AT41" s="54"/>
-      <c r="AU41" s="54"/>
-      <c r="AV41" s="54"/>
-      <c r="AW41" s="54"/>
-      <c r="AX41" s="54"/>
-      <c r="AY41" s="54"/>
-      <c r="AZ41" s="54"/>
-      <c r="BA41" s="54"/>
-      <c r="BB41" s="54"/>
-      <c r="BC41" s="54"/>
+    <row r="42" spans="1:57" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="66"/>
+      <c r="AL42" s="66"/>
+      <c r="AM42" s="66"/>
+      <c r="AN42" s="66"/>
+      <c r="AO42" s="66"/>
+      <c r="AP42" s="66"/>
+      <c r="AQ42" s="66"/>
+      <c r="AR42" s="66"/>
+      <c r="AS42" s="66"/>
+      <c r="AT42" s="66"/>
+      <c r="AU42" s="66"/>
+      <c r="AV42" s="66"/>
+      <c r="AW42" s="66"/>
+      <c r="AX42" s="66"/>
+      <c r="AY42" s="66"/>
+      <c r="AZ42" s="66"/>
+      <c r="BA42" s="66"/>
+      <c r="BB42" s="66"/>
+      <c r="BC42" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="144">
-    <mergeCell ref="AC23:BE24"/>
-    <mergeCell ref="AC35:BE36"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:V29"/>
+  <mergeCells count="147">
+    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="F36:W37"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="W31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="F24:W25"/>
+    <mergeCell ref="X24:AB25"/>
+    <mergeCell ref="A27:H28"/>
+    <mergeCell ref="I27:P28"/>
+    <mergeCell ref="Q27:V28"/>
+    <mergeCell ref="W27:AD28"/>
+    <mergeCell ref="AE27:BC28"/>
+    <mergeCell ref="AE29:BC29"/>
     <mergeCell ref="W29:AD29"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="W30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="A23:E24"/>
-    <mergeCell ref="F23:W24"/>
-    <mergeCell ref="X23:AB24"/>
-    <mergeCell ref="A26:H27"/>
-    <mergeCell ref="I26:P27"/>
-    <mergeCell ref="Q26:V27"/>
-    <mergeCell ref="W26:AD27"/>
-    <mergeCell ref="AE26:BC27"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="W13:AD13"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="A20:J21"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:W20"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="AB20:AJ20"/>
+    <mergeCell ref="A21:J22"/>
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="O21:W21"/>
     <mergeCell ref="X21:AA21"/>
     <mergeCell ref="AB21:AJ21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AB22:AJ22"/>
     <mergeCell ref="AE15:BC15"/>
     <mergeCell ref="AE16:BC16"/>
     <mergeCell ref="AE17:BC17"/>
@@ -20226,6 +20426,9 @@
     <mergeCell ref="W9:AD9"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="W13:AD13"/>
     <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:W2"/>
@@ -20249,76 +20452,83 @@
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="AC4:BC5"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:V29"/>
     <mergeCell ref="W14:AD14"/>
     <mergeCell ref="I14:P14"/>
     <mergeCell ref="AE14:BC14"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AN20:AT20"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="AX20:BC20"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AN21:AT21"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AX21:BC21"/>
     <mergeCell ref="Q16:V16"/>
     <mergeCell ref="W16:AD16"/>
     <mergeCell ref="I15:P15"/>
     <mergeCell ref="Q15:V15"/>
     <mergeCell ref="W15:AD15"/>
     <mergeCell ref="I16:P16"/>
-    <mergeCell ref="AE9:BC13"/>
-    <mergeCell ref="AE40:BC40"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AD30"/>
+    <mergeCell ref="W39:AD40"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="I41:P41"/>
     <mergeCell ref="Q41:V41"/>
     <mergeCell ref="W41:AD41"/>
+    <mergeCell ref="AE9:BC13"/>
     <mergeCell ref="AE41:BC41"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AX33:BC33"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="Q42:V42"/>
+    <mergeCell ref="W42:AD42"/>
+    <mergeCell ref="AE42:BC42"/>
+    <mergeCell ref="AU34:AW34"/>
+    <mergeCell ref="AX34:BC34"/>
     <mergeCell ref="W10:AD10"/>
     <mergeCell ref="W11:AD11"/>
     <mergeCell ref="W12:AD12"/>
     <mergeCell ref="I12:P12"/>
     <mergeCell ref="I11:P11"/>
     <mergeCell ref="I13:P13"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AN21:AT21"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AX21:BC21"/>
-    <mergeCell ref="A32:J33"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AD28"/>
-    <mergeCell ref="A35:E36"/>
-    <mergeCell ref="F35:W36"/>
-    <mergeCell ref="X35:AB36"/>
-    <mergeCell ref="A38:H39"/>
-    <mergeCell ref="I38:P39"/>
-    <mergeCell ref="Q38:V39"/>
-    <mergeCell ref="W38:AD39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="I40:P40"/>
-    <mergeCell ref="Q40:V40"/>
-    <mergeCell ref="W40:AD40"/>
-    <mergeCell ref="AE38:BC39"/>
-    <mergeCell ref="AB32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AT32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AX32:BC32"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AN22:AT22"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="AX22:BC22"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="W18:AD18"/>
+    <mergeCell ref="AE18:BC18"/>
+    <mergeCell ref="AE39:BC40"/>
+    <mergeCell ref="AB33:AJ33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AN33:AT33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AX33:BC33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="O34:W34"/>
+    <mergeCell ref="X34:AA34"/>
+    <mergeCell ref="AB34:AJ34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AN34:AT34"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="O33:W33"/>
     <mergeCell ref="X33:AA33"/>
-    <mergeCell ref="AB33:AJ33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AN33:AT33"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="X32:AA32"/>
+    <mergeCell ref="X36:AB37"/>
+    <mergeCell ref="A39:H40"/>
+    <mergeCell ref="I39:P40"/>
+    <mergeCell ref="Q39:V40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q28:Q30 Q40:Q41 Q9:Q19" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q20 Q41:Q42 Q29:Q31" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>部品種別</formula1>
     </dataValidation>
   </dataValidations>
